--- a/tests/regression_data/performance_analysis_ainley_mathieson_win.xlsx
+++ b/tests/regression_data/performance_analysis_ainley_mathieson_win.xlsx
@@ -695,7 +695,7 @@
         <v>2.299999999940965</v>
       </c>
       <c r="D2" t="n">
-        <v>2.75559346173029</v>
+        <v>2.755593461730291</v>
       </c>
       <c r="E2" t="n">
         <v>92.53908666998338</v>
@@ -704,7 +704,7 @@
         <v>79.02962757491188</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1459865185751126</v>
+        <v>0.1459865185751127</v>
       </c>
       <c r="H2" t="n">
         <v>-78.175614093487</v>
@@ -713,13 +713,13 @@
         <v>136846.6799160138</v>
       </c>
       <c r="J2" t="n">
-        <v>84.10982170621624</v>
+        <v>84.10982170621625</v>
       </c>
       <c r="K2" t="n">
         <v>1627</v>
       </c>
       <c r="L2" t="n">
-        <v>-23.83042576203788</v>
+        <v>-23.83042576203789</v>
       </c>
       <c r="M2" t="n">
         <v>135.4521696606938</v>
@@ -760,40 +760,40 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2.068915664419289</v>
+        <v>2.068915664101385</v>
       </c>
       <c r="C3" t="n">
-        <v>2.399999999994084</v>
+        <v>2.399999999987679</v>
       </c>
       <c r="D3" t="n">
-        <v>2.758758069546146</v>
+        <v>2.758758066679155</v>
       </c>
       <c r="E3" t="n">
-        <v>92.50770109920693</v>
+        <v>92.50770110040769</v>
       </c>
       <c r="F3" t="n">
-        <v>78.1561112623598</v>
+        <v>78.15611124899317</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1551394064095941</v>
+        <v>0.1551394065650525</v>
       </c>
       <c r="H3" t="n">
-        <v>-77.31125066876939</v>
+        <v>-77.31125065555823</v>
       </c>
       <c r="I3" t="n">
-        <v>141581.7575449671</v>
+        <v>141581.7573736168</v>
       </c>
       <c r="J3" t="n">
-        <v>87.02013370926068</v>
+        <v>87.02013360394393</v>
       </c>
       <c r="K3" t="n">
         <v>1627</v>
       </c>
       <c r="L3" t="n">
-        <v>-26.2846936038585</v>
+        <v>-26.28469378370598</v>
       </c>
       <c r="M3" t="n">
-        <v>142.7385992863043</v>
+        <v>142.7385993578204</v>
       </c>
       <c r="N3" t="n">
         <v>362.3934737152361</v>
@@ -808,13 +808,13 @@
         <v>421784.4310885898</v>
       </c>
       <c r="R3" t="n">
-        <v>370463.5997667409</v>
+        <v>370463.5997755181</v>
       </c>
       <c r="S3" t="n">
         <v>356119.9161927916</v>
       </c>
       <c r="T3" t="n">
-        <v>0.7057278922428442</v>
+        <v>0.7057278918761365</v>
       </c>
       <c r="U3" t="n">
         <v>0.3675856069766728</v>
@@ -3120,10 +3120,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>81.10933468506666</v>
+        <v>81.10933468506668</v>
       </c>
       <c r="D2" t="n">
-        <v>81.10933468506666</v>
+        <v>81.10933468506668</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -3132,10 +3132,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>81.10933468506666</v>
+        <v>81.10933468506668</v>
       </c>
       <c r="H2" t="n">
-        <v>81.10933468506666</v>
+        <v>81.10933468506668</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -3144,97 +3144,97 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>292.3202568573701</v>
+        <v>292.3202568572699</v>
       </c>
       <c r="L2" t="n">
-        <v>132721.3593051092</v>
+        <v>132721.3593049497</v>
       </c>
       <c r="M2" t="n">
-        <v>1.582500525683722</v>
+        <v>1.582500525682364</v>
       </c>
       <c r="N2" t="n">
-        <v>334626.9393230748</v>
+        <v>334626.9393230029</v>
       </c>
       <c r="O2" t="n">
-        <v>418495.0690020628</v>
+        <v>418495.0690019623</v>
       </c>
       <c r="P2" t="n">
-        <v>3782.91734771824</v>
+        <v>3782.917347718239</v>
       </c>
       <c r="Q2" t="n">
-        <v>-687328.3017531344</v>
+        <v>-687328.3017528557</v>
       </c>
       <c r="R2" t="n">
-        <v>717.7114519086896</v>
+        <v>717.711451908685</v>
       </c>
       <c r="S2" t="n">
-        <v>1006.645971640958</v>
+        <v>1006.645971640953</v>
       </c>
       <c r="T2" t="n">
-        <v>1.402577552530161</v>
+        <v>1.402577552530163</v>
       </c>
       <c r="U2" t="n">
-        <v>0.9994977397642916</v>
+        <v>0.9994977397642909</v>
       </c>
       <c r="V2" t="n">
-        <v>342.8893146388995</v>
+        <v>342.8893146388406</v>
       </c>
       <c r="W2" t="n">
-        <v>186059.4642192733</v>
+        <v>186059.4642190496</v>
       </c>
       <c r="X2" t="n">
-        <v>5.374625817590704e-06</v>
+        <v>5.374625817597164e-06</v>
       </c>
       <c r="Y2" t="n">
-        <v>132655.3842841943</v>
+        <v>132655.3842840347</v>
       </c>
       <c r="Z2" t="n">
-        <v>7.53832952500179e-06</v>
+        <v>7.538329525010858e-06</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.003433837587903464</v>
+        <v>0.00343383758790464</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.816983436463346e-05</v>
+        <v>1.816983436462855e-05</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.02582187936381938</v>
+        <v>0.02582187936381182</v>
       </c>
       <c r="AD2" t="n">
-        <v>132721.3593051092</v>
+        <v>132721.3593049497</v>
       </c>
       <c r="AE2" t="n">
-        <v>1.582500525683722</v>
+        <v>1.582500525682364</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.582500525683722</v>
+        <v>1.582500525682364</v>
       </c>
       <c r="AG2" t="n">
-        <v>334626.9393230748</v>
+        <v>334626.9393230029</v>
       </c>
       <c r="AH2" t="n">
-        <v>418495.0690020628</v>
+        <v>418495.0690019623</v>
       </c>
       <c r="AI2" t="n">
-        <v>3782.91734771824</v>
+        <v>3782.917347718239</v>
       </c>
       <c r="AJ2" t="n">
-        <v>717.7114519086896</v>
+        <v>717.711451908685</v>
       </c>
       <c r="AK2" t="n">
-        <v>1006.645971640958</v>
+        <v>1006.645971640953</v>
       </c>
       <c r="AL2" t="n">
-        <v>342.8893146388995</v>
+        <v>342.8893146388406</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.9994977397642916</v>
+        <v>0.9994977397642909</v>
       </c>
       <c r="AN2" t="n">
-        <v>1.816983436463346e-05</v>
+        <v>1.816983436462855e-05</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.02582187936381938</v>
+        <v>0.02582187936381182</v>
       </c>
       <c r="AP2" t="n">
         <v>295.6000000000945</v>
@@ -3423,16 +3423,16 @@
         <v>0.0260686341970676</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.236546696622739</v>
+        <v>0.2365466966227797</v>
       </c>
       <c r="DA2" t="n">
-        <v>0.236546696622739</v>
+        <v>0.2365466966227797</v>
       </c>
       <c r="DB2" t="n">
-        <v>184799.7899805511</v>
+        <v>184799.7899804425</v>
       </c>
       <c r="DC2" t="n">
-        <v>2.755593461657425</v>
+        <v>2.755593461655061</v>
       </c>
       <c r="DD2" t="n">
         <v>421784.4310884894</v>
@@ -3799,25 +3799,25 @@
         <v>421784.4310884894</v>
       </c>
       <c r="HP2" t="n">
-        <v>0.01582685401945128</v>
+        <v>0.0158268540194509</v>
       </c>
       <c r="HQ2" t="n">
-        <v>-1.792061504432142e-07</v>
+        <v>-1.792061504432141e-07</v>
       </c>
       <c r="HR2" t="n">
-        <v>0.01378707801977478</v>
+        <v>0.01378707801977476</v>
       </c>
       <c r="HS2" t="n">
-        <v>0.02523875693789726</v>
+        <v>0.02523875693789754</v>
       </c>
       <c r="HT2" t="n">
         <v>0</v>
       </c>
       <c r="HU2" t="n">
-        <v>0.05485250977097288</v>
+        <v>0.05485250977097275</v>
       </c>
       <c r="HV2" t="n">
-        <v>2.399234977357168e-11</v>
+        <v>2.399247467366195e-11</v>
       </c>
       <c r="HW2" t="n">
         <v>0</v>
@@ -4153,13 +4153,13 @@
         <v>123.904228028082</v>
       </c>
       <c r="MD2" t="n">
-        <v>-54.72689048862929</v>
+        <v>-54.72689048862932</v>
       </c>
       <c r="ME2" t="n">
-        <v>-23.83042576203788</v>
+        <v>-23.83042576203789</v>
       </c>
       <c r="MF2" t="n">
-        <v>252.518313085743</v>
+        <v>252.5183130857431</v>
       </c>
       <c r="MG2" t="n">
         <v>123.904228028082</v>
@@ -4450,7 +4450,7 @@
         <v>0.02401592208740152</v>
       </c>
       <c r="PY2" t="n">
-        <v>0.4389008903945452</v>
+        <v>0.4389008903945453</v>
       </c>
       <c r="PZ2" t="n">
         <v>0.818226188121537</v>
@@ -4459,7 +4459,7 @@
         <v>378771.035413523</v>
       </c>
       <c r="QB2" t="n">
-        <v>2.75559346173029</v>
+        <v>2.755593461730291</v>
       </c>
       <c r="QC2" t="n">
         <v>381169.5427860193</v>
@@ -4497,10 +4497,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>81.20801466819034</v>
+        <v>81.20801458693568</v>
       </c>
       <c r="D3" t="n">
-        <v>81.20801466819034</v>
+        <v>81.20801458693568</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -4509,10 +4509,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>81.20801466819034</v>
+        <v>81.20801458693568</v>
       </c>
       <c r="H3" t="n">
-        <v>81.20801466819034</v>
+        <v>81.20801458693568</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -4521,97 +4521,97 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>292.3122709182384</v>
+        <v>292.312270924618</v>
       </c>
       <c r="L3" t="n">
-        <v>132708.6859068</v>
+        <v>132708.6859169236</v>
       </c>
       <c r="M3" t="n">
-        <v>1.582392732544689</v>
+        <v>1.582392732630795</v>
       </c>
       <c r="N3" t="n">
-        <v>334621.2264699151</v>
+        <v>334621.2264744789</v>
       </c>
       <c r="O3" t="n">
-        <v>418487.0602654152</v>
+        <v>418487.060271813</v>
       </c>
       <c r="P3" t="n">
         <v>3782.91734771824</v>
       </c>
       <c r="Q3" t="n">
-        <v>-687306.100342103</v>
+        <v>-687306.1003598385</v>
       </c>
       <c r="R3" t="n">
-        <v>717.7110906401133</v>
+        <v>717.7110906404018</v>
       </c>
       <c r="S3" t="n">
-        <v>1006.645552417636</v>
+        <v>1006.645552417971</v>
       </c>
       <c r="T3" t="n">
-        <v>1.402577674423043</v>
+        <v>1.402577674422946</v>
       </c>
       <c r="U3" t="n">
-        <v>0.9994976840128209</v>
+        <v>0.9994976840128654</v>
       </c>
       <c r="V3" t="n">
-        <v>342.8846265352198</v>
+        <v>342.8846265389649</v>
       </c>
       <c r="W3" t="n">
-        <v>186041.7032877504</v>
+        <v>186041.703301938</v>
       </c>
       <c r="X3" t="n">
-        <v>5.375138919542688e-06</v>
+        <v>5.375138919132778e-06</v>
       </c>
       <c r="Y3" t="n">
-        <v>132642.709691126</v>
+        <v>132642.7097012505</v>
       </c>
       <c r="Z3" t="n">
-        <v>7.539049845472973e-06</v>
+        <v>7.539049844897522e-06</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.003433931248362766</v>
+        <v>0.003433931248287944</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.816944359624058e-05</v>
+        <v>1.816944359655276e-05</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.02582127746640981</v>
+        <v>0.02582127746689065</v>
       </c>
       <c r="AD3" t="n">
-        <v>132708.6859068</v>
+        <v>132708.6859169236</v>
       </c>
       <c r="AE3" t="n">
-        <v>1.582392732544689</v>
+        <v>1.582392732630795</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.582392732544689</v>
+        <v>1.582392732630795</v>
       </c>
       <c r="AG3" t="n">
-        <v>334621.2264699151</v>
+        <v>334621.2264744789</v>
       </c>
       <c r="AH3" t="n">
-        <v>418487.0602654152</v>
+        <v>418487.060271813</v>
       </c>
       <c r="AI3" t="n">
         <v>3782.91734771824</v>
       </c>
       <c r="AJ3" t="n">
-        <v>717.7110906401133</v>
+        <v>717.7110906404018</v>
       </c>
       <c r="AK3" t="n">
-        <v>1006.645552417636</v>
+        <v>1006.645552417971</v>
       </c>
       <c r="AL3" t="n">
-        <v>342.8846265352198</v>
+        <v>342.8846265389649</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.9994976840128209</v>
+        <v>0.9994976840128654</v>
       </c>
       <c r="AN3" t="n">
-        <v>1.816944359624058e-05</v>
+        <v>1.816944359655276e-05</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.02582127746640981</v>
+        <v>0.02582127746689065</v>
       </c>
       <c r="AP3" t="n">
         <v>295.6000000000945</v>
@@ -4800,16 +4800,16 @@
         <v>0.0260686341970676</v>
       </c>
       <c r="CZ3" t="n">
-        <v>0.2368377243645508</v>
+        <v>0.2368377241249902</v>
       </c>
       <c r="DA3" t="n">
-        <v>0.2368377243645508</v>
+        <v>0.2368377241249902</v>
       </c>
       <c r="DB3" t="n">
-        <v>185015.9987492244</v>
+        <v>185015.998570991</v>
       </c>
       <c r="DC3" t="n">
-        <v>2.758758069511708</v>
+        <v>2.758758066901484</v>
       </c>
       <c r="DD3" t="n">
         <v>421784.4310884894</v>
@@ -4858,343 +4858,343 @@
         <v>0</v>
       </c>
       <c r="DN3" t="n">
-        <v>271.5285911696772</v>
+        <v>271.5285906125618</v>
       </c>
       <c r="DO3" t="n">
-        <v>112.2159171535996</v>
+        <v>112.2159168761339</v>
       </c>
       <c r="DP3" t="n">
-        <v>247.2556647682033</v>
+        <v>247.255664282323</v>
       </c>
       <c r="DQ3" t="n">
-        <v>65.58928231874685</v>
+        <v>65.58928232968992</v>
       </c>
       <c r="DR3" t="n">
-        <v>271.5285911696772</v>
+        <v>271.5285906125618</v>
       </c>
       <c r="DS3" t="n">
-        <v>112.2159171535996</v>
+        <v>112.2159168761339</v>
       </c>
       <c r="DT3" t="n">
-        <v>247.2556647682033</v>
+        <v>247.255664282323</v>
       </c>
       <c r="DU3" t="n">
-        <v>65.58928231874685</v>
+        <v>65.58928232968992</v>
       </c>
       <c r="DV3" t="n">
-        <v>258.8140749223423</v>
+        <v>258.8140750735773</v>
       </c>
       <c r="DW3" t="n">
-        <v>85017.40970327434</v>
+        <v>85017.40988025248</v>
       </c>
       <c r="DX3" t="n">
-        <v>1.145140328522705</v>
+        <v>1.145140330236641</v>
       </c>
       <c r="DY3" t="n">
-        <v>310678.6292511815</v>
+        <v>310678.6293592321</v>
       </c>
       <c r="DZ3" t="n">
-        <v>384920.5431770945</v>
+        <v>384920.543328574</v>
       </c>
       <c r="EA3" t="n">
-        <v>3788.704170019639</v>
+        <v>3788.704170007785</v>
       </c>
       <c r="EB3" t="n">
-        <v>-595649.4217409593</v>
+        <v>-595649.4221593963</v>
       </c>
       <c r="EC3" t="n">
-        <v>716.5170134475796</v>
+        <v>716.5170134515979</v>
       </c>
       <c r="ED3" t="n">
-        <v>1005.178624614841</v>
+        <v>1005.178624619973</v>
       </c>
       <c r="EE3" t="n">
-        <v>1.402867769710509</v>
+        <v>1.402867769709804</v>
       </c>
       <c r="EF3" t="n">
-        <v>0.9993210569053287</v>
+        <v>0.9993210569059556</v>
       </c>
       <c r="EG3" t="n">
-        <v>322.6160903084577</v>
+        <v>322.6160904028388</v>
       </c>
       <c r="EH3" t="n">
-        <v>119187.5128290324</v>
+        <v>119187.5130771573</v>
       </c>
       <c r="EI3" t="n">
-        <v>8.390140680546308e-06</v>
+        <v>8.390140663079692e-06</v>
       </c>
       <c r="EJ3" t="n">
-        <v>84959.90527576773</v>
+        <v>84959.90545268021</v>
       </c>
       <c r="EK3" t="n">
-        <v>1.177025794407542e-05</v>
+        <v>1.177025791956614e-05</v>
       </c>
       <c r="EL3" t="n">
-        <v>0.003877242060659901</v>
+        <v>0.003877242058399307</v>
       </c>
       <c r="EM3" t="n">
-        <v>1.64899421226461e-05</v>
+        <v>1.648994213041653e-05</v>
       </c>
       <c r="EN3" t="n">
-        <v>0.02324805648266112</v>
+        <v>0.02324805649450147</v>
       </c>
       <c r="EO3" t="n">
-        <v>85017.40970327434</v>
+        <v>85017.40988025248</v>
       </c>
       <c r="EP3" t="n">
-        <v>1.145140328522705</v>
+        <v>1.145140330236641</v>
       </c>
       <c r="EQ3" t="n">
-        <v>1.145140328522705</v>
+        <v>1.145140330236641</v>
       </c>
       <c r="ER3" t="n">
-        <v>310678.6292511815</v>
+        <v>310678.6293592321</v>
       </c>
       <c r="ES3" t="n">
-        <v>384920.5431770945</v>
+        <v>384920.543328574</v>
       </c>
       <c r="ET3" t="n">
-        <v>3788.704170019639</v>
+        <v>3788.704170007785</v>
       </c>
       <c r="EU3" t="n">
-        <v>716.5170134475796</v>
+        <v>716.5170134515979</v>
       </c>
       <c r="EV3" t="n">
-        <v>1005.178624614841</v>
+        <v>1005.178624619973</v>
       </c>
       <c r="EW3" t="n">
-        <v>322.6160903084577</v>
+        <v>322.6160904028388</v>
       </c>
       <c r="EX3" t="n">
-        <v>0.9993210569053287</v>
+        <v>0.9993210569059556</v>
       </c>
       <c r="EY3" t="n">
-        <v>1.64899421226461e-05</v>
+        <v>1.648994213041653e-05</v>
       </c>
       <c r="EZ3" t="n">
-        <v>0.02324805648266112</v>
+        <v>0.02324805649450147</v>
       </c>
       <c r="FA3" t="n">
-        <v>295.5936112671787</v>
+        <v>295.5936112671998</v>
       </c>
       <c r="FB3" t="n">
-        <v>135244.5237576722</v>
+        <v>135244.5237666899</v>
       </c>
       <c r="FC3" t="n">
-        <v>1.594675750278949</v>
+        <v>1.594675750385212</v>
       </c>
       <c r="FD3" t="n">
-        <v>336974.3850751511</v>
+        <v>336974.385075148</v>
       </c>
       <c r="FE3" t="n">
-        <v>421784.4310885896</v>
+        <v>421784.4310885898</v>
       </c>
       <c r="FF3" t="n">
-        <v>3788.704170024841</v>
+        <v>3788.704170005712</v>
       </c>
       <c r="FG3" t="n">
-        <v>-698132.3165520725</v>
+        <v>-698132.3165464974</v>
       </c>
       <c r="FH3" t="n">
-        <v>717.8560592368626</v>
+        <v>717.856059236886</v>
       </c>
       <c r="FI3" t="n">
-        <v>1006.77634214042</v>
+        <v>1006.776342140568</v>
       </c>
       <c r="FJ3" t="n">
-        <v>1.402476623531885</v>
+        <v>1.402476623532045</v>
       </c>
       <c r="FK3" t="n">
-        <v>0.9995304415158747</v>
+        <v>0.999530441515844</v>
       </c>
       <c r="FL3" t="n">
-        <v>344.8026690860116</v>
+        <v>344.8026690860331</v>
       </c>
       <c r="FM3" t="n">
-        <v>189589.2148847225</v>
+        <v>189589.2148973797</v>
       </c>
       <c r="FN3" t="n">
-        <v>5.274561639004825e-06</v>
+        <v>5.274561638652689e-06</v>
       </c>
       <c r="FO3" t="n">
-        <v>135181.7290239578</v>
+        <v>135181.7290329672</v>
       </c>
       <c r="FP3" t="n">
-        <v>7.397449398082293e-06</v>
+        <v>7.397449397589278e-06</v>
       </c>
       <c r="FQ3" t="n">
-        <v>0.003395616933199489</v>
+        <v>0.003395616933200082</v>
       </c>
       <c r="FR3" t="n">
-        <v>1.832924431621799e-05</v>
+        <v>1.83292443162203e-05</v>
       </c>
       <c r="FS3" t="n">
-        <v>0.02606727416594537</v>
+        <v>0.02606727416594982</v>
       </c>
       <c r="FT3" t="n">
-        <v>135244.5237576722</v>
+        <v>135244.5237666899</v>
       </c>
       <c r="FU3" t="n">
-        <v>1.594675750278949</v>
+        <v>1.594675750385212</v>
       </c>
       <c r="FV3" t="n">
-        <v>1.594675750278949</v>
+        <v>1.594675750385212</v>
       </c>
       <c r="FW3" t="n">
-        <v>336974.3850751511</v>
+        <v>336974.385075148</v>
       </c>
       <c r="FX3" t="n">
-        <v>421784.4310885896</v>
+        <v>421784.4310885898</v>
       </c>
       <c r="FY3" t="n">
-        <v>3788.704170024841</v>
+        <v>3788.704170005712</v>
       </c>
       <c r="FZ3" t="n">
-        <v>717.8560592368626</v>
+        <v>717.856059236886</v>
       </c>
       <c r="GA3" t="n">
-        <v>1006.77634214042</v>
+        <v>1006.776342140568</v>
       </c>
       <c r="GB3" t="n">
-        <v>344.8026690860116</v>
+        <v>344.8026690860331</v>
       </c>
       <c r="GC3" t="n">
-        <v>0.9995304415158747</v>
+        <v>0.999530441515844</v>
       </c>
       <c r="GD3" t="n">
-        <v>1.832924431621799e-05</v>
+        <v>1.83292443162203e-05</v>
       </c>
       <c r="GE3" t="n">
-        <v>0.02606727416594537</v>
+        <v>0.02606727416594982</v>
       </c>
       <c r="GF3" t="n">
-        <v>295.5936112671787</v>
+        <v>295.5936112671998</v>
       </c>
       <c r="GG3" t="n">
-        <v>135244.5237576722</v>
+        <v>135244.5237666899</v>
       </c>
       <c r="GH3" t="n">
-        <v>1.594675750278949</v>
+        <v>1.594675750385212</v>
       </c>
       <c r="GI3" t="n">
-        <v>336974.3850751511</v>
+        <v>336974.385075148</v>
       </c>
       <c r="GJ3" t="n">
-        <v>421784.4310885896</v>
+        <v>421784.4310885898</v>
       </c>
       <c r="GK3" t="n">
-        <v>3788.704170024841</v>
+        <v>3788.704170005712</v>
       </c>
       <c r="GL3" t="n">
-        <v>-698132.3165520725</v>
+        <v>-698132.3165464974</v>
       </c>
       <c r="GM3" t="n">
-        <v>717.8560592368626</v>
+        <v>717.856059236886</v>
       </c>
       <c r="GN3" t="n">
-        <v>1006.77634214042</v>
+        <v>1006.776342140568</v>
       </c>
       <c r="GO3" t="n">
-        <v>1.402476623531885</v>
+        <v>1.402476623532045</v>
       </c>
       <c r="GP3" t="n">
-        <v>0.9995304415158747</v>
+        <v>0.999530441515844</v>
       </c>
       <c r="GQ3" t="n">
-        <v>344.8026690860116</v>
+        <v>344.8026690860331</v>
       </c>
       <c r="GR3" t="n">
-        <v>189589.2148847225</v>
+        <v>189589.2148973797</v>
       </c>
       <c r="GS3" t="n">
-        <v>5.274561639004825e-06</v>
+        <v>5.274561638652689e-06</v>
       </c>
       <c r="GT3" t="n">
-        <v>135181.7290239578</v>
+        <v>135181.7290329672</v>
       </c>
       <c r="GU3" t="n">
-        <v>7.397449398082293e-06</v>
+        <v>7.397449397589278e-06</v>
       </c>
       <c r="GV3" t="n">
-        <v>0.003395616933199489</v>
+        <v>0.003395616933200082</v>
       </c>
       <c r="GW3" t="n">
-        <v>1.832924431621799e-05</v>
+        <v>1.83292443162203e-05</v>
       </c>
       <c r="GX3" t="n">
-        <v>0.02606727416594537</v>
+        <v>0.02606727416594982</v>
       </c>
       <c r="GY3" t="n">
-        <v>135244.5237576722</v>
+        <v>135244.5237666899</v>
       </c>
       <c r="GZ3" t="n">
-        <v>1.594675750278949</v>
+        <v>1.594675750385212</v>
       </c>
       <c r="HA3" t="n">
-        <v>1.594675750278949</v>
+        <v>1.594675750385212</v>
       </c>
       <c r="HB3" t="n">
-        <v>336974.3850751511</v>
+        <v>336974.385075148</v>
       </c>
       <c r="HC3" t="n">
-        <v>421784.4310885896</v>
+        <v>421784.4310885898</v>
       </c>
       <c r="HD3" t="n">
-        <v>3788.704170024841</v>
+        <v>3788.704170005712</v>
       </c>
       <c r="HE3" t="n">
-        <v>717.8560592368626</v>
+        <v>717.856059236886</v>
       </c>
       <c r="HF3" t="n">
-        <v>1006.77634214042</v>
+        <v>1006.776342140568</v>
       </c>
       <c r="HG3" t="n">
-        <v>344.8026690860116</v>
+        <v>344.8026690860331</v>
       </c>
       <c r="HH3" t="n">
-        <v>0.9995304415158747</v>
+        <v>0.999530441515844</v>
       </c>
       <c r="HI3" t="n">
-        <v>1.832924431621799e-05</v>
+        <v>1.83292443162203e-05</v>
       </c>
       <c r="HJ3" t="n">
-        <v>0.02606727416594537</v>
+        <v>0.02606727416594982</v>
       </c>
       <c r="HK3" t="n">
-        <v>0.8416461525836015</v>
+        <v>0.8416461506105106</v>
       </c>
       <c r="HL3" t="n">
-        <v>0.8416461525836015</v>
+        <v>0.8416461506105106</v>
       </c>
       <c r="HM3" t="n">
-        <v>493279.2920918465</v>
+        <v>493279.2915855976</v>
       </c>
       <c r="HN3" t="n">
-        <v>2.758758069499318</v>
+        <v>2.758758066807039</v>
       </c>
       <c r="HO3" t="n">
         <v>421784.4310884894</v>
       </c>
       <c r="HP3" t="n">
-        <v>0.0158403131967107</v>
+        <v>0.01584031320653238</v>
       </c>
       <c r="HQ3" t="n">
-        <v>-1.79881551135554e-07</v>
+        <v>-1.798815517603347e-07</v>
       </c>
       <c r="HR3" t="n">
-        <v>0.01378750972718739</v>
+        <v>0.01378750972752283</v>
       </c>
       <c r="HS3" t="n">
-        <v>0.02523269070282556</v>
+        <v>0.0252326906985068</v>
       </c>
       <c r="HT3" t="n">
         <v>0</v>
       </c>
       <c r="HU3" t="n">
-        <v>0.05486033374517252</v>
+        <v>0.05486033375101025</v>
       </c>
       <c r="HV3" t="n">
-        <v>-1.020052098343882e-12</v>
+        <v>-2.941154264579637e-12</v>
       </c>
       <c r="HW3" t="n">
         <v>0</v>
@@ -5203,664 +5203,664 @@
         <v>165.3032</v>
       </c>
       <c r="HY3" t="n">
-        <v>271.5285911696772</v>
+        <v>271.5285906125618</v>
       </c>
       <c r="HZ3" t="n">
-        <v>112.2159171535996</v>
+        <v>112.2159168761339</v>
       </c>
       <c r="IA3" t="n">
-        <v>247.2556647682033</v>
+        <v>247.255664282323</v>
       </c>
       <c r="IB3" t="n">
-        <v>65.58928231874685</v>
+        <v>65.58928232968992</v>
       </c>
       <c r="IC3" t="n">
-        <v>138.9554552516998</v>
+        <v>138.9554547410673</v>
       </c>
       <c r="ID3" t="n">
-        <v>112.2159171535996</v>
+        <v>112.2159168761339</v>
       </c>
       <c r="IE3" t="n">
-        <v>81.9524647682033</v>
+        <v>81.95246428232295</v>
       </c>
       <c r="IF3" t="n">
-        <v>36.14104883629234</v>
+        <v>36.14104874197601</v>
       </c>
       <c r="IG3" t="n">
-        <v>258.8140749226419</v>
+        <v>258.814075073471</v>
       </c>
       <c r="IH3" t="n">
-        <v>85017.40970345434</v>
+        <v>85017.40988013557</v>
       </c>
       <c r="II3" t="n">
-        <v>1.145140328523801</v>
+        <v>1.145140330235537</v>
       </c>
       <c r="IJ3" t="n">
-        <v>310678.629251396</v>
+        <v>310678.6293591561</v>
       </c>
       <c r="IK3" t="n">
-        <v>384920.5431773951</v>
+        <v>384920.5433284675</v>
       </c>
       <c r="IL3" t="n">
-        <v>3788.704170020193</v>
+        <v>3788.704170007769</v>
       </c>
       <c r="IM3" t="n">
-        <v>-595649.4217419366</v>
+        <v>-595649.422159096</v>
       </c>
       <c r="IN3" t="n">
-        <v>716.5170134475869</v>
+        <v>716.5170134515949</v>
       </c>
       <c r="IO3" t="n">
-        <v>1005.178624614848</v>
+        <v>1005.178624619969</v>
       </c>
       <c r="IP3" t="n">
-        <v>1.402867769710504</v>
+        <v>1.402867769709805</v>
       </c>
       <c r="IQ3" t="n">
-        <v>0.9993210569053314</v>
+        <v>0.9993210569059552</v>
       </c>
       <c r="IR3" t="n">
-        <v>322.6160903086445</v>
+        <v>322.6160904027726</v>
       </c>
       <c r="IS3" t="n">
-        <v>119187.5128292846</v>
+        <v>119187.5130769934</v>
       </c>
       <c r="IT3" t="n">
-        <v>8.390140680528559e-06</v>
+        <v>8.390140663091227e-06</v>
       </c>
       <c r="IU3" t="n">
-        <v>84959.90527594779</v>
+        <v>84959.90545256333</v>
       </c>
       <c r="IV3" t="n">
-        <v>1.177025794405047e-05</v>
+        <v>1.177025791958234e-05</v>
       </c>
       <c r="IW3" t="n">
-        <v>0.003877242060655398</v>
+        <v>0.003877242058400897</v>
       </c>
       <c r="IX3" t="n">
-        <v>1.648994212266146e-05</v>
+        <v>1.648994213041107e-05</v>
       </c>
       <c r="IY3" t="n">
-        <v>0.02324805648268451</v>
+        <v>0.02324805649449314</v>
       </c>
       <c r="IZ3" t="n">
-        <v>85017.40970345434</v>
+        <v>85017.40988013557</v>
       </c>
       <c r="JA3" t="n">
-        <v>1.145140328523801</v>
+        <v>1.145140330235537</v>
       </c>
       <c r="JB3" t="n">
-        <v>1.145140328523801</v>
+        <v>1.145140330235537</v>
       </c>
       <c r="JC3" t="n">
-        <v>310678.629251396</v>
+        <v>310678.6293591561</v>
       </c>
       <c r="JD3" t="n">
-        <v>384920.5431773951</v>
+        <v>384920.5433284675</v>
       </c>
       <c r="JE3" t="n">
-        <v>3788.704170020193</v>
+        <v>3788.704170007769</v>
       </c>
       <c r="JF3" t="n">
-        <v>716.5170134475869</v>
+        <v>716.5170134515949</v>
       </c>
       <c r="JG3" t="n">
-        <v>1005.178624614848</v>
+        <v>1005.178624619969</v>
       </c>
       <c r="JH3" t="n">
-        <v>322.6160903086445</v>
+        <v>322.6160904027726</v>
       </c>
       <c r="JI3" t="n">
-        <v>0.9993210569053314</v>
+        <v>0.9993210569059552</v>
       </c>
       <c r="JJ3" t="n">
-        <v>1.648994212266146e-05</v>
+        <v>1.648994213041107e-05</v>
       </c>
       <c r="JK3" t="n">
-        <v>0.02324805648268451</v>
+        <v>0.02324805649449314</v>
       </c>
       <c r="JL3" t="n">
-        <v>295.5936112672782</v>
+        <v>295.5936112672917</v>
       </c>
       <c r="JM3" t="n">
-        <v>135244.5237575718</v>
+        <v>135244.5237634277</v>
       </c>
       <c r="JN3" t="n">
-        <v>1.594675750277226</v>
+        <v>1.594675750346232</v>
       </c>
       <c r="JO3" t="n">
-        <v>336974.3850752228</v>
+        <v>336974.3850752207</v>
       </c>
       <c r="JP3" t="n">
-        <v>421784.4310886899</v>
+        <v>421784.4310886901</v>
       </c>
       <c r="JQ3" t="n">
-        <v>3788.704170025393</v>
+        <v>3788.704170012971</v>
       </c>
       <c r="JR3" t="n">
-        <v>-698132.3165525118</v>
+        <v>-698132.3165488912</v>
       </c>
       <c r="JS3" t="n">
-        <v>717.8560592368664</v>
+        <v>717.8560592368817</v>
       </c>
       <c r="JT3" t="n">
-        <v>1006.776342140421</v>
+        <v>1006.776342140517</v>
       </c>
       <c r="JU3" t="n">
-        <v>1.402476623531879</v>
+        <v>1.402476623531983</v>
       </c>
       <c r="JV3" t="n">
-        <v>0.9995304415158763</v>
+        <v>0.9995304415158563</v>
       </c>
       <c r="JW3" t="n">
-        <v>344.8026690860694</v>
+        <v>344.8026690860833</v>
       </c>
       <c r="JX3" t="n">
-        <v>189589.2148845813</v>
+        <v>189589.2148928005</v>
       </c>
       <c r="JY3" t="n">
-        <v>5.274561639008755e-06</v>
+        <v>5.274561638780088e-06</v>
       </c>
       <c r="JZ3" t="n">
-        <v>135181.7290238576</v>
+        <v>135181.7290297081</v>
       </c>
       <c r="KA3" t="n">
-        <v>7.397449398087774e-06</v>
+        <v>7.39744939776762e-06</v>
       </c>
       <c r="KB3" t="n">
-        <v>0.003395616933198324</v>
+        <v>0.003395616933198711</v>
       </c>
       <c r="KC3" t="n">
-        <v>1.832924431622279e-05</v>
+        <v>1.832924431622429e-05</v>
       </c>
       <c r="KD3" t="n">
-        <v>0.02606727416595274</v>
+        <v>0.02606727416595563</v>
       </c>
       <c r="KE3" t="n">
-        <v>135244.5237575718</v>
+        <v>135244.5237634277</v>
       </c>
       <c r="KF3" t="n">
-        <v>1.594675750277226</v>
+        <v>1.594675750346232</v>
       </c>
       <c r="KG3" t="n">
-        <v>1.594675750277226</v>
+        <v>1.594675750346232</v>
       </c>
       <c r="KH3" t="n">
-        <v>336974.3850752228</v>
+        <v>336974.3850752207</v>
       </c>
       <c r="KI3" t="n">
-        <v>421784.4310886899</v>
+        <v>421784.4310886901</v>
       </c>
       <c r="KJ3" t="n">
-        <v>3788.704170025393</v>
+        <v>3788.704170012971</v>
       </c>
       <c r="KK3" t="n">
-        <v>717.8560592368664</v>
+        <v>717.8560592368817</v>
       </c>
       <c r="KL3" t="n">
-        <v>1006.776342140421</v>
+        <v>1006.776342140517</v>
       </c>
       <c r="KM3" t="n">
-        <v>344.8026690860694</v>
+        <v>344.8026690860833</v>
       </c>
       <c r="KN3" t="n">
-        <v>0.9995304415158763</v>
+        <v>0.9995304415158563</v>
       </c>
       <c r="KO3" t="n">
-        <v>1.832924431622279e-05</v>
+        <v>1.832924431622429e-05</v>
       </c>
       <c r="KP3" t="n">
-        <v>0.02606727416595274</v>
+        <v>0.02606727416595563</v>
       </c>
       <c r="KQ3" t="n">
-        <v>268.4508433430416</v>
+        <v>268.4508434232141</v>
       </c>
       <c r="KR3" t="n">
-        <v>96595.21482779592</v>
+        <v>96595.21493272384</v>
       </c>
       <c r="KS3" t="n">
-        <v>1.254324706622777</v>
+        <v>1.254324707610231</v>
       </c>
       <c r="KT3" t="n">
-        <v>317565.1162003617</v>
+        <v>317565.1162576518</v>
       </c>
       <c r="KU3" t="n">
-        <v>394574.8524494985</v>
+        <v>394574.8525298164</v>
       </c>
       <c r="KV3" t="n">
-        <v>3788.704170026833</v>
+        <v>3788.70417001441</v>
       </c>
       <c r="KW3" t="n">
-        <v>-622505.9771715032</v>
+        <v>-622505.9773916003</v>
       </c>
       <c r="KX3" t="n">
-        <v>716.7954132154787</v>
+        <v>716.795413218007</v>
       </c>
       <c r="KY3" t="n">
-        <v>1005.524044009033</v>
+        <v>1005.524044012194</v>
       </c>
       <c r="KZ3" t="n">
-        <v>1.402804796836442</v>
+        <v>1.402804796835904</v>
       </c>
       <c r="LA3" t="n">
-        <v>0.9993661456289283</v>
+        <v>0.9993661456293045</v>
       </c>
       <c r="LB3" t="n">
-        <v>328.5749424869182</v>
+        <v>328.5749425360441</v>
       </c>
       <c r="LC3" t="n">
-        <v>135418.7678209001</v>
+        <v>135418.7679680004</v>
       </c>
       <c r="LD3" t="n">
-        <v>7.384500805106745e-06</v>
+        <v>7.384500797085237e-06</v>
       </c>
       <c r="LE3" t="n">
-        <v>96534.29196014436</v>
+        <v>96534.292065043</v>
       </c>
       <c r="LF3" t="n">
-        <v>1.035901315164631e-05</v>
+        <v>1.035901314038973e-05</v>
       </c>
       <c r="LG3" t="n">
-        <v>0.003738322115066555</v>
+        <v>0.003738322113952787</v>
       </c>
       <c r="LH3" t="n">
-        <v>1.698146700260439e-05</v>
+        <v>1.698146700666486e-05</v>
       </c>
       <c r="LI3" t="n">
-        <v>0.02399818158282196</v>
+        <v>0.02399818158902909</v>
       </c>
       <c r="LJ3" t="n">
-        <v>96595.21482779592</v>
+        <v>96595.21493272384</v>
       </c>
       <c r="LK3" t="n">
-        <v>1.254324706622777</v>
+        <v>1.254324707610231</v>
       </c>
       <c r="LL3" t="n">
-        <v>1.254324706622777</v>
+        <v>1.254324707610231</v>
       </c>
       <c r="LM3" t="n">
-        <v>317565.1162003617</v>
+        <v>317565.1162576518</v>
       </c>
       <c r="LN3" t="n">
-        <v>394574.8524494985</v>
+        <v>394574.8525298164</v>
       </c>
       <c r="LO3" t="n">
-        <v>3788.704170026833</v>
+        <v>3788.70417001441</v>
       </c>
       <c r="LP3" t="n">
-        <v>716.7954132154787</v>
+        <v>716.795413218007</v>
       </c>
       <c r="LQ3" t="n">
-        <v>1005.524044009033</v>
+        <v>1005.524044012194</v>
       </c>
       <c r="LR3" t="n">
-        <v>328.5749424869182</v>
+        <v>328.5749425360441</v>
       </c>
       <c r="LS3" t="n">
-        <v>0.9993661456289283</v>
+        <v>0.9993661456293045</v>
       </c>
       <c r="LT3" t="n">
-        <v>1.698146700260439e-05</v>
+        <v>1.698146700666486e-05</v>
       </c>
       <c r="LU3" t="n">
-        <v>0.02399818158282196</v>
+        <v>0.02399818158902909</v>
       </c>
       <c r="LV3" t="n">
-        <v>0.8416461525831141</v>
+        <v>0.8416461506106835</v>
       </c>
       <c r="LW3" t="n">
-        <v>0.4307145843803454</v>
+        <v>0.4307145826718912</v>
       </c>
       <c r="LX3" t="n">
-        <v>251471.9740372317</v>
+        <v>251471.9733708386</v>
       </c>
       <c r="LY3" t="n">
-        <v>2.758758069501958</v>
+        <v>2.75875806680438</v>
       </c>
       <c r="LZ3" t="n">
-        <v>380912.2784842784</v>
+        <v>380912.2785645961</v>
       </c>
       <c r="MA3" t="n">
         <v>165.3032</v>
       </c>
       <c r="MB3" t="n">
-        <v>142.7385992863043</v>
+        <v>142.7385993578204</v>
       </c>
       <c r="MC3" t="n">
-        <v>127.9801080604929</v>
+        <v>127.9801079262053</v>
       </c>
       <c r="MD3" t="n">
-        <v>-63.20917391518989</v>
+        <v>-63.20917434858012</v>
       </c>
       <c r="ME3" t="n">
-        <v>-26.2846936038585</v>
+        <v>-26.28469378370598</v>
       </c>
       <c r="MF3" t="n">
-        <v>261.9099331669782</v>
+        <v>261.909933479486</v>
       </c>
       <c r="MG3" t="n">
-        <v>127.9801080604929</v>
+        <v>127.9801079262053</v>
       </c>
       <c r="MH3" t="n">
-        <v>-228.5123739151899</v>
+        <v>-228.5123743485801</v>
       </c>
       <c r="MI3" t="n">
-        <v>-60.74865824287323</v>
+        <v>-60.74865831483183</v>
       </c>
       <c r="MJ3" t="n">
-        <v>234.1959631843818</v>
+        <v>234.1959631826583</v>
       </c>
       <c r="MK3" t="n">
-        <v>57499.99999918428</v>
+        <v>57499.99999933774</v>
       </c>
       <c r="ML3" t="n">
-        <v>0.8559542647578928</v>
+        <v>0.8559542647664977</v>
       </c>
       <c r="MM3" t="n">
-        <v>293099.9595345131</v>
+        <v>293099.9595332774</v>
       </c>
       <c r="MN3" t="n">
-        <v>360276.445903733</v>
+        <v>360276.4459020013</v>
       </c>
       <c r="MO3" t="n">
-        <v>3800.82410732976</v>
+        <v>3800.824107321601</v>
       </c>
       <c r="MP3" t="n">
-        <v>-529861.2168067781</v>
+        <v>-529861.2168000485</v>
       </c>
       <c r="MQ3" t="n">
-        <v>715.9877378556351</v>
+        <v>715.9877378556153</v>
       </c>
       <c r="MR3" t="n">
-        <v>1004.421540455866</v>
+        <v>1004.421540455874</v>
       </c>
       <c r="MS3" t="n">
-        <v>1.402847405549267</v>
+        <v>1.402847405549317</v>
       </c>
       <c r="MT3" t="n">
-        <v>0.9992672396749003</v>
+        <v>0.9992672396748752</v>
       </c>
       <c r="MU3" t="n">
-        <v>306.8703687667976</v>
+        <v>306.8703687656662</v>
       </c>
       <c r="MV3" t="n">
-        <v>80604.71942100182</v>
+        <v>80604.7194212178</v>
       </c>
       <c r="MW3" t="n">
-        <v>1.24062214617603e-05</v>
+        <v>1.240622146172706e-05</v>
       </c>
       <c r="MX3" t="n">
-        <v>57457.93812081942</v>
+        <v>57457.93812097134</v>
       </c>
       <c r="MY3" t="n">
-        <v>1.740403559030006e-05</v>
+        <v>1.740403559025405e-05</v>
       </c>
       <c r="MZ3" t="n">
-        <v>0.004283350729412634</v>
+        <v>0.004283350729444471</v>
       </c>
       <c r="NA3" t="n">
-        <v>1.520032149487172e-05</v>
+        <v>1.520032149477996e-05</v>
       </c>
       <c r="NB3" t="n">
-        <v>0.02129076118837898</v>
+        <v>0.0212907611882406</v>
       </c>
       <c r="NC3" t="n">
-        <v>57499.99999918428</v>
+        <v>57499.99999933774</v>
       </c>
       <c r="ND3" t="n">
-        <v>0.8559542647578928</v>
+        <v>0.8559542647664977</v>
       </c>
       <c r="NE3" t="n">
-        <v>0.8559542647578928</v>
+        <v>0.8559542647664977</v>
       </c>
       <c r="NF3" t="n">
-        <v>293099.9595345131</v>
+        <v>293099.9595332774</v>
       </c>
       <c r="NG3" t="n">
-        <v>360276.445903733</v>
+        <v>360276.4459020013</v>
       </c>
       <c r="NH3" t="n">
-        <v>3800.82410732976</v>
+        <v>3800.824107321601</v>
       </c>
       <c r="NI3" t="n">
-        <v>715.9877378556351</v>
+        <v>715.9877378556153</v>
       </c>
       <c r="NJ3" t="n">
-        <v>1004.421540455866</v>
+        <v>1004.421540455874</v>
       </c>
       <c r="NK3" t="n">
-        <v>306.8703687667976</v>
+        <v>306.8703687656662</v>
       </c>
       <c r="NL3" t="n">
-        <v>0.9992672396749003</v>
+        <v>0.9992672396748752</v>
       </c>
       <c r="NM3" t="n">
-        <v>1.520032149487172e-05</v>
+        <v>1.520032149477996e-05</v>
       </c>
       <c r="NN3" t="n">
-        <v>0.02129076118837898</v>
+        <v>0.0212907611882406</v>
       </c>
       <c r="NO3" t="n">
-        <v>244.369368059345</v>
+        <v>244.369368068116</v>
       </c>
       <c r="NP3" t="n">
-        <v>66701.60720951206</v>
+        <v>66701.60721976127</v>
       </c>
       <c r="NQ3" t="n">
-        <v>0.9515664033787088</v>
+        <v>0.9515664034907627</v>
       </c>
       <c r="NR3" t="n">
-        <v>300366.9601915352</v>
+        <v>300366.9601977959</v>
       </c>
       <c r="NS3" t="n">
-        <v>370463.5997667409</v>
+        <v>370463.5997755181</v>
       </c>
       <c r="NT3" t="n">
-        <v>3800.824107338435</v>
+        <v>3800.824107330277</v>
       </c>
       <c r="NU3" t="n">
-        <v>-558341.3854482766</v>
+        <v>-558341.3854708428</v>
       </c>
       <c r="NV3" t="n">
-        <v>716.1704227801474</v>
+        <v>716.1704227803307</v>
       </c>
       <c r="NW3" t="n">
-        <v>1004.670277453947</v>
+        <v>1004.670277454229</v>
       </c>
       <c r="NX3" t="n">
-        <v>1.402836874432559</v>
+        <v>1.402836874432594</v>
       </c>
       <c r="NY3" t="n">
-        <v>0.9992961233683523</v>
+        <v>0.9992961233683603</v>
       </c>
       <c r="NZ3" t="n">
-        <v>313.472644278395</v>
+        <v>313.4726442840272</v>
       </c>
       <c r="OA3" t="n">
-        <v>93505.76655797461</v>
+        <v>93505.76657234563</v>
       </c>
       <c r="OB3" t="n">
-        <v>1.069452758702308e-05</v>
+        <v>1.069452758537943e-05</v>
       </c>
       <c r="OC3" t="n">
-        <v>66654.76810751586</v>
+        <v>66654.76811775847</v>
       </c>
       <c r="OD3" t="n">
-        <v>1.500267765371225e-05</v>
+        <v>1.500267765140684e-05</v>
       </c>
       <c r="OE3" t="n">
-        <v>0.004105379937545241</v>
+        <v>0.004105379937398556</v>
       </c>
       <c r="OF3" t="n">
-        <v>1.573907456393546e-05</v>
+        <v>1.57390745643965e-05</v>
       </c>
       <c r="OG3" t="n">
-        <v>0.02210627394170558</v>
+        <v>0.02210627394240496</v>
       </c>
       <c r="OH3" t="n">
-        <v>66701.60720951206</v>
+        <v>66701.60721976127</v>
       </c>
       <c r="OI3" t="n">
-        <v>0.9515664033787088</v>
+        <v>0.9515664034907627</v>
       </c>
       <c r="OJ3" t="n">
-        <v>0.9515664033787088</v>
+        <v>0.9515664034907627</v>
       </c>
       <c r="OK3" t="n">
-        <v>300366.9601915352</v>
+        <v>300366.9601977959</v>
       </c>
       <c r="OL3" t="n">
-        <v>370463.5997667409</v>
+        <v>370463.5997755181</v>
       </c>
       <c r="OM3" t="n">
-        <v>3800.824107338435</v>
+        <v>3800.824107330277</v>
       </c>
       <c r="ON3" t="n">
-        <v>716.1704227801474</v>
+        <v>716.1704227803307</v>
       </c>
       <c r="OO3" t="n">
-        <v>1004.670277453947</v>
+        <v>1004.670277454229</v>
       </c>
       <c r="OP3" t="n">
-        <v>313.472644278395</v>
+        <v>313.4726442840272</v>
       </c>
       <c r="OQ3" t="n">
-        <v>0.9992961233683523</v>
+        <v>0.9992961233683603</v>
       </c>
       <c r="OR3" t="n">
-        <v>1.573907456393546e-05</v>
+        <v>1.57390745643965e-05</v>
       </c>
       <c r="OS3" t="n">
-        <v>0.02210627394170558</v>
+        <v>0.02210627394240496</v>
       </c>
       <c r="OT3" t="n">
-        <v>268.4395765580689</v>
+        <v>268.4395766382316</v>
       </c>
       <c r="OU3" t="n">
-        <v>92599.19582336633</v>
+        <v>92599.19592257825</v>
       </c>
       <c r="OV3" t="n">
-        <v>1.20245415709488</v>
+        <v>1.202454158023677</v>
       </c>
       <c r="OW3" t="n">
-        <v>317566.3484019713</v>
+        <v>317566.3484592638</v>
       </c>
       <c r="OX3" t="n">
-        <v>394574.8524492983</v>
+        <v>394574.8525296159</v>
       </c>
       <c r="OY3" t="n">
-        <v>3800.82410732976</v>
+        <v>3800.8241073216</v>
       </c>
       <c r="OZ3" t="n">
-        <v>-625716.7614940028</v>
+        <v>-625716.7617161791</v>
       </c>
       <c r="PA3" t="n">
-        <v>716.7822198895841</v>
+        <v>716.7822198921037</v>
       </c>
       <c r="PB3" t="n">
-        <v>1005.441428095524</v>
+        <v>1005.441428098626</v>
       </c>
       <c r="PC3" t="n">
-        <v>1.402715357881514</v>
+        <v>1.402715357880912</v>
       </c>
       <c r="PD3" t="n">
-        <v>0.9993920992988481</v>
+        <v>0.9993920992992174</v>
       </c>
       <c r="PE3" t="n">
-        <v>328.566063704092</v>
+        <v>328.5660637532026</v>
       </c>
       <c r="PF3" t="n">
-        <v>129811.7300061498</v>
+        <v>129811.7301452245</v>
       </c>
       <c r="PG3" t="n">
-        <v>7.703464085661789e-06</v>
+        <v>7.703464077408628e-06</v>
       </c>
       <c r="PH3" t="n">
-        <v>92543.172980013</v>
+        <v>92543.17307919954</v>
       </c>
       <c r="PI3" t="n">
-        <v>1.080576738184647e-05</v>
+        <v>1.080576737026499e-05</v>
       </c>
       <c r="PJ3" t="n">
-        <v>0.003737932947802796</v>
+        <v>0.003737932946688939</v>
       </c>
       <c r="PK3" t="n">
-        <v>1.698029073637407e-05</v>
+        <v>1.698029074043334e-05</v>
       </c>
       <c r="PL3" t="n">
-        <v>0.02399589606997383</v>
+        <v>0.0239958960761787</v>
       </c>
       <c r="PM3" t="n">
-        <v>92599.19582336633</v>
+        <v>92599.19592257825</v>
       </c>
       <c r="PN3" t="n">
-        <v>1.20245415709488</v>
+        <v>1.202454158023677</v>
       </c>
       <c r="PO3" t="n">
-        <v>1.20245415709488</v>
+        <v>1.202454158023677</v>
       </c>
       <c r="PP3" t="n">
-        <v>317566.3484019713</v>
+        <v>317566.3484592638</v>
       </c>
       <c r="PQ3" t="n">
-        <v>394574.8524492983</v>
+        <v>394574.8525296159</v>
       </c>
       <c r="PR3" t="n">
-        <v>3800.82410732976</v>
+        <v>3800.8241073216</v>
       </c>
       <c r="PS3" t="n">
-        <v>716.7822198895841</v>
+        <v>716.7822198921037</v>
       </c>
       <c r="PT3" t="n">
-        <v>1005.441428095524</v>
+        <v>1005.441428098626</v>
       </c>
       <c r="PU3" t="n">
-        <v>328.566063704092</v>
+        <v>328.5660637532026</v>
       </c>
       <c r="PV3" t="n">
-        <v>0.9993920992988481</v>
+        <v>0.9993920992992174</v>
       </c>
       <c r="PW3" t="n">
-        <v>1.698029073637407e-05</v>
+        <v>1.698029074043334e-05</v>
       </c>
       <c r="PX3" t="n">
-        <v>0.02399589606997383</v>
+        <v>0.0239958960761787</v>
       </c>
       <c r="PY3" t="n">
-        <v>0.4651429848372777</v>
+        <v>0.4651429850720422</v>
       </c>
       <c r="PZ3" t="n">
-        <v>0.8534872044489037</v>
+        <v>0.8534872054704208</v>
       </c>
       <c r="QA3" t="n">
-        <v>384347.5947941378</v>
+        <v>384347.5952589205</v>
       </c>
       <c r="QB3" t="n">
-        <v>2.758758069546146</v>
+        <v>2.758758066679155</v>
       </c>
       <c r="QC3" t="n">
-        <v>380912.2784842784</v>
+        <v>380912.2785645961</v>
       </c>
       <c r="QD3" t="n">
-        <v>0.02499269670527356</v>
+        <v>0.02499269656272422</v>
       </c>
       <c r="QE3" t="n">
-        <v>0.002208533120231965</v>
+        <v>0.002208533062239477</v>
       </c>
       <c r="QF3" t="n">
-        <v>0.01186225827076423</v>
+        <v>0.01186225828073722</v>
       </c>
       <c r="QG3" t="n">
-        <v>0.03219276697458451</v>
+        <v>0.03219276690494956</v>
       </c>
       <c r="QH3" t="n">
-        <v>0.04259304861984633</v>
+        <v>0.04259304858987095</v>
       </c>
       <c r="QI3" t="n">
-        <v>0.1138493036907006</v>
+        <v>0.1138493034005214</v>
       </c>
       <c r="QJ3" t="n">
-        <v>-7.324502115935161e-12</v>
+        <v>1.243971869957505e-10</v>
       </c>
       <c r="QK3" t="n">
         <v>0</v>
@@ -8257,25 +8257,25 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.01582685401945128</v>
+        <v>0.0158268540194509</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.792061504432142e-07</v>
+        <v>-1.792061504432141e-07</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01378707801977478</v>
+        <v>0.01378707801977476</v>
       </c>
       <c r="E2" t="n">
-        <v>0.02523875693789726</v>
+        <v>0.02523875693789754</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.05485250977097288</v>
+        <v>0.05485250977097275</v>
       </c>
       <c r="H2" t="n">
-        <v>2.399234977357168e-11</v>
+        <v>2.399247467366195e-11</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -8308,10 +8308,10 @@
         <v>292.2676180723461</v>
       </c>
       <c r="S2" t="n">
-        <v>132637.8394372623</v>
+        <v>132637.8394372625</v>
       </c>
       <c r="T2" t="n">
-        <v>1.581790096098466</v>
+        <v>1.581790096098469</v>
       </c>
       <c r="U2" t="n">
         <v>334589.2834749816</v>
@@ -8341,16 +8341,16 @@
         <v>342.8584121221004</v>
       </c>
       <c r="AD2" t="n">
-        <v>185942.4165863851</v>
+        <v>185942.4165863854</v>
       </c>
       <c r="AE2" t="n">
-        <v>5.378009054407551e-06</v>
+        <v>5.378009054407542e-06</v>
       </c>
       <c r="AF2" t="n">
-        <v>132571.8565721488</v>
+        <v>132571.856572149</v>
       </c>
       <c r="AG2" t="n">
-        <v>7.54307909579418e-06</v>
+        <v>7.543079095794169e-06</v>
       </c>
       <c r="AH2" t="n">
         <v>0.003434455038601764</v>
@@ -8362,13 +8362,13 @@
         <v>0.02581791190126216</v>
       </c>
       <c r="AK2" t="n">
-        <v>132637.8394372623</v>
+        <v>132637.8394372625</v>
       </c>
       <c r="AL2" t="n">
-        <v>1.581790096098466</v>
+        <v>1.581790096098469</v>
       </c>
       <c r="AM2" t="n">
-        <v>1.581790096098466</v>
+        <v>1.581790096098469</v>
       </c>
       <c r="AN2" t="n">
         <v>334589.2834749816</v>
@@ -8398,25 +8398,25 @@
         <v>0.02581791190126216</v>
       </c>
       <c r="AW2" t="n">
-        <v>295.6000000001887</v>
+        <v>295.6000000001888</v>
       </c>
       <c r="AX2" t="n">
-        <v>137999.9999953522</v>
+        <v>137999.9999953525</v>
       </c>
       <c r="AY2" t="n">
-        <v>1.627145819756432</v>
+        <v>1.627145819756435</v>
       </c>
       <c r="AZ2" t="n">
         <v>336973.3475829663</v>
       </c>
       <c r="BA2" t="n">
-        <v>421784.4310886901</v>
+        <v>421784.4310886902</v>
       </c>
       <c r="BB2" t="n">
-        <v>3782.917347723358</v>
+        <v>3782.917347723357</v>
       </c>
       <c r="BC2" t="n">
-        <v>-696445.9368990484</v>
+        <v>-696445.9368990486</v>
       </c>
       <c r="BD2" t="n">
         <v>717.8632360362602</v>
@@ -8434,43 +8434,43 @@
         <v>344.8092213941073</v>
       </c>
       <c r="BI2" t="n">
-        <v>193456.8974372405</v>
+        <v>193456.897437241</v>
       </c>
       <c r="BJ2" t="n">
-        <v>5.169110087296892e-06</v>
+        <v>5.169110087296878e-06</v>
       </c>
       <c r="BK2" t="n">
-        <v>137934.6617461893</v>
+        <v>137934.6617461897</v>
       </c>
       <c r="BL2" t="n">
-        <v>7.249809346979655e-06</v>
+        <v>7.249809346979635e-06</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.003395798695744088</v>
+        <v>0.003395798695744087</v>
       </c>
       <c r="BN2" t="n">
         <v>1.832995174012606e-05</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.02606863419707386</v>
+        <v>0.02606863419707387</v>
       </c>
       <c r="BP2" t="n">
-        <v>137999.9999953522</v>
+        <v>137999.9999953525</v>
       </c>
       <c r="BQ2" t="n">
-        <v>1.627145819756432</v>
+        <v>1.627145819756435</v>
       </c>
       <c r="BR2" t="n">
-        <v>1.627145819756432</v>
+        <v>1.627145819756435</v>
       </c>
       <c r="BS2" t="n">
         <v>336973.3475829663</v>
       </c>
       <c r="BT2" t="n">
-        <v>421784.4310886901</v>
+        <v>421784.4310886902</v>
       </c>
       <c r="BU2" t="n">
-        <v>3782.917347723358</v>
+        <v>3782.917347723357</v>
       </c>
       <c r="BV2" t="n">
         <v>717.8632360362602</v>
@@ -8488,28 +8488,28 @@
         <v>1.832995174012606e-05</v>
       </c>
       <c r="CA2" t="n">
-        <v>0.02606863419707386</v>
+        <v>0.02606863419707387</v>
       </c>
       <c r="CB2" t="n">
-        <v>295.6000000001887</v>
+        <v>295.6000000001888</v>
       </c>
       <c r="CC2" t="n">
-        <v>137999.9999953522</v>
+        <v>137999.9999953525</v>
       </c>
       <c r="CD2" t="n">
-        <v>1.627145819756432</v>
+        <v>1.627145819756435</v>
       </c>
       <c r="CE2" t="n">
         <v>336973.3475829663</v>
       </c>
       <c r="CF2" t="n">
-        <v>421784.4310886901</v>
+        <v>421784.4310886902</v>
       </c>
       <c r="CG2" t="n">
-        <v>3782.917347723358</v>
+        <v>3782.917347723357</v>
       </c>
       <c r="CH2" t="n">
-        <v>-696445.9368990484</v>
+        <v>-696445.9368990486</v>
       </c>
       <c r="CI2" t="n">
         <v>717.8632360362602</v>
@@ -8527,43 +8527,43 @@
         <v>344.8092213941073</v>
       </c>
       <c r="CN2" t="n">
-        <v>193456.8974372405</v>
+        <v>193456.897437241</v>
       </c>
       <c r="CO2" t="n">
-        <v>5.169110087296892e-06</v>
+        <v>5.169110087296878e-06</v>
       </c>
       <c r="CP2" t="n">
-        <v>137934.6617461893</v>
+        <v>137934.6617461897</v>
       </c>
       <c r="CQ2" t="n">
-        <v>7.249809346979655e-06</v>
+        <v>7.249809346979635e-06</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.003395798695744088</v>
+        <v>0.003395798695744087</v>
       </c>
       <c r="CS2" t="n">
         <v>1.832995174012606e-05</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.02606863419707386</v>
+        <v>0.02606863419707387</v>
       </c>
       <c r="CU2" t="n">
-        <v>137999.9999953522</v>
+        <v>137999.9999953525</v>
       </c>
       <c r="CV2" t="n">
-        <v>1.627145819756432</v>
+        <v>1.627145819756435</v>
       </c>
       <c r="CW2" t="n">
-        <v>1.627145819756432</v>
+        <v>1.627145819756435</v>
       </c>
       <c r="CX2" t="n">
         <v>336973.3475829663</v>
       </c>
       <c r="CY2" t="n">
-        <v>421784.4310886901</v>
+        <v>421784.4310886902</v>
       </c>
       <c r="CZ2" t="n">
-        <v>3782.917347723358</v>
+        <v>3782.917347723357</v>
       </c>
       <c r="DA2" t="n">
         <v>717.8632360362602</v>
@@ -8581,7 +8581,7 @@
         <v>1.832995174012606e-05</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.02606863419707386</v>
+        <v>0.02606863419707387</v>
       </c>
       <c r="DG2" t="n">
         <v>0.2384587305905387</v>
@@ -8590,10 +8590,10 @@
         <v>0.2384587305905387</v>
       </c>
       <c r="DI2" t="n">
-        <v>186219.5323252645</v>
+        <v>186219.5323252648</v>
       </c>
       <c r="DJ2" t="n">
-        <v>2.776369934795874</v>
+        <v>2.776369934795878</v>
       </c>
       <c r="DK2" t="n">
         <v>421784.4310885898</v>
@@ -8923,7 +8923,7 @@
         <v>0.05509138442004997</v>
       </c>
       <c r="HP2" t="n">
-        <v>5.578249857945972e-06</v>
+        <v>5.578249863594231e-06</v>
       </c>
       <c r="HQ2" t="n">
         <v>0.9800024875335352</v>
@@ -8944,25 +8944,25 @@
         <v>0</v>
       </c>
       <c r="HW2" t="n">
-        <v>1480.456341070123</v>
+        <v>1480.456341070356</v>
       </c>
       <c r="HX2" t="n">
         <v>0</v>
       </c>
       <c r="HY2" t="n">
-        <v>0.006563199634084886</v>
+        <v>0.006563199634085404</v>
       </c>
       <c r="HZ2" t="n">
-        <v>-7.431456305650831e-08</v>
+        <v>-7.431456305651593e-08</v>
       </c>
       <c r="IA2" t="n">
-        <v>0.01046619878441942</v>
+        <v>0.01046619878442062</v>
       </c>
       <c r="IB2" t="n">
         <v>0</v>
       </c>
       <c r="IC2" t="n">
-        <v>0.005717329881432922</v>
+        <v>0.00571732988143351</v>
       </c>
       <c r="ID2" t="n">
         <v>0.02482484681506889</v>
@@ -9658,19 +9658,19 @@
         <v>6.174938036768758</v>
       </c>
       <c r="RA2" t="n">
-        <v>0.00899855484486917</v>
+        <v>0.008998554844868667</v>
       </c>
       <c r="RB2" t="n">
-        <v>0.00070345365475523</v>
+        <v>0.0007034536547551906</v>
       </c>
       <c r="RC2" t="n">
-        <v>0.01163856806267348</v>
+        <v>0.01163856806267283</v>
       </c>
       <c r="RD2" t="n">
-        <v>0.01532791804828573</v>
+        <v>0.01532791804828488</v>
       </c>
       <c r="RE2" t="n">
-        <v>0.004302057081292738</v>
+        <v>0.004302057081292498</v>
       </c>
     </row>
     <row r="3">
@@ -9678,34 +9678,34 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0158403131967107</v>
+        <v>0.01584031320653238</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.79881551135554e-07</v>
+        <v>-1.798815517603347e-07</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01378750972718739</v>
+        <v>0.01378750972752283</v>
       </c>
       <c r="E3" t="n">
-        <v>0.02523269070282556</v>
+        <v>0.0252326906985068</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05486033374517252</v>
+        <v>0.05486033375101025</v>
       </c>
       <c r="H3" t="n">
-        <v>-1.020052098343882e-12</v>
+        <v>-2.941154264579637e-12</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>81.75758172536702</v>
+        <v>81.7575817253086</v>
       </c>
       <c r="K3" t="n">
-        <v>81.75758172536702</v>
+        <v>81.7575817253086</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -9714,10 +9714,10 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>81.75758172536702</v>
+        <v>81.7575817253086</v>
       </c>
       <c r="O3" t="n">
-        <v>81.75758172536702</v>
+        <v>81.7575817253086</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -9726,106 +9726,106 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>292.2676180723728</v>
+        <v>292.2676180725778</v>
       </c>
       <c r="S3" t="n">
-        <v>132637.8394373043</v>
+        <v>132637.8394376295</v>
       </c>
       <c r="T3" t="n">
-        <v>1.581790096098822</v>
+        <v>1.581790096101588</v>
       </c>
       <c r="U3" t="n">
-        <v>334589.2834750006</v>
+        <v>334589.2834751474</v>
       </c>
       <c r="V3" t="n">
-        <v>418442.2800036992</v>
+        <v>418442.2800039048</v>
       </c>
       <c r="W3" t="n">
-        <v>3782.917347723465</v>
+        <v>3782.917347723466</v>
       </c>
       <c r="X3" t="n">
-        <v>-687181.9625800963</v>
+        <v>-687181.9625806663</v>
       </c>
       <c r="Y3" t="n">
-        <v>717.709071370396</v>
+        <v>717.7090713704052</v>
       </c>
       <c r="Z3" t="n">
-        <v>1006.643209103386</v>
+        <v>1006.643209103397</v>
       </c>
       <c r="AA3" t="n">
-        <v>1.402578355574214</v>
+        <v>1.402578355574211</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.9994973723756385</v>
+        <v>0.9994973723756398</v>
       </c>
       <c r="AC3" t="n">
-        <v>342.8584121221162</v>
+        <v>342.8584121222365</v>
       </c>
       <c r="AD3" t="n">
-        <v>185942.416586444</v>
+        <v>185942.4165868997</v>
       </c>
       <c r="AE3" t="n">
-        <v>5.378009054405847e-06</v>
+        <v>5.378009054392669e-06</v>
       </c>
       <c r="AF3" t="n">
-        <v>132571.8565721908</v>
+        <v>132571.856572516</v>
       </c>
       <c r="AG3" t="n">
-        <v>7.543079095791789e-06</v>
+        <v>7.543079095773287e-06</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.00343445503860145</v>
+        <v>0.003434455038599044</v>
       </c>
       <c r="AI3" t="n">
-        <v>1.816725856046064e-05</v>
+        <v>1.816725856047067e-05</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.0258179119012642</v>
+        <v>0.02581791190127964</v>
       </c>
       <c r="AK3" t="n">
-        <v>132637.8394373043</v>
+        <v>132637.8394376295</v>
       </c>
       <c r="AL3" t="n">
-        <v>1.581790096098822</v>
+        <v>1.581790096101588</v>
       </c>
       <c r="AM3" t="n">
-        <v>1.581790096098822</v>
+        <v>1.581790096101588</v>
       </c>
       <c r="AN3" t="n">
-        <v>334589.2834750006</v>
+        <v>334589.2834751474</v>
       </c>
       <c r="AO3" t="n">
-        <v>418442.2800036992</v>
+        <v>418442.2800039048</v>
       </c>
       <c r="AP3" t="n">
-        <v>3782.917347723465</v>
+        <v>3782.917347723466</v>
       </c>
       <c r="AQ3" t="n">
-        <v>717.709071370396</v>
+        <v>717.7090713704052</v>
       </c>
       <c r="AR3" t="n">
-        <v>1006.643209103386</v>
+        <v>1006.643209103397</v>
       </c>
       <c r="AS3" t="n">
-        <v>342.8584121221162</v>
+        <v>342.8584121222365</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.9994973723756385</v>
+        <v>0.9994973723756398</v>
       </c>
       <c r="AU3" t="n">
-        <v>1.816725856046064e-05</v>
+        <v>1.816725856047067e-05</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.0258179119012642</v>
+        <v>0.02581791190127964</v>
       </c>
       <c r="AW3" t="n">
         <v>295.6000000001887</v>
       </c>
       <c r="AX3" t="n">
-        <v>137999.9999953522</v>
+        <v>137999.9999953523</v>
       </c>
       <c r="AY3" t="n">
-        <v>1.627145819756432</v>
+        <v>1.627145819756433</v>
       </c>
       <c r="AZ3" t="n">
         <v>336973.3475829663</v>
@@ -9855,16 +9855,16 @@
         <v>344.8092213941073</v>
       </c>
       <c r="BI3" t="n">
-        <v>193456.8974372405</v>
+        <v>193456.8974372406</v>
       </c>
       <c r="BJ3" t="n">
-        <v>5.169110087296892e-06</v>
+        <v>5.169110087296888e-06</v>
       </c>
       <c r="BK3" t="n">
-        <v>137934.6617461893</v>
+        <v>137934.6617461894</v>
       </c>
       <c r="BL3" t="n">
-        <v>7.249809346979655e-06</v>
+        <v>7.249809346979649e-06</v>
       </c>
       <c r="BM3" t="n">
         <v>0.003395798695744088</v>
@@ -9876,13 +9876,13 @@
         <v>0.02606863419707386</v>
       </c>
       <c r="BP3" t="n">
-        <v>137999.9999953522</v>
+        <v>137999.9999953523</v>
       </c>
       <c r="BQ3" t="n">
-        <v>1.627145819756432</v>
+        <v>1.627145819756433</v>
       </c>
       <c r="BR3" t="n">
-        <v>1.627145819756432</v>
+        <v>1.627145819756433</v>
       </c>
       <c r="BS3" t="n">
         <v>336973.3475829663</v>
@@ -9915,10 +9915,10 @@
         <v>295.6000000001887</v>
       </c>
       <c r="CC3" t="n">
-        <v>137999.9999953522</v>
+        <v>137999.9999953523</v>
       </c>
       <c r="CD3" t="n">
-        <v>1.627145819756432</v>
+        <v>1.627145819756433</v>
       </c>
       <c r="CE3" t="n">
         <v>336973.3475829663</v>
@@ -9948,16 +9948,16 @@
         <v>344.8092213941073</v>
       </c>
       <c r="CN3" t="n">
-        <v>193456.8974372405</v>
+        <v>193456.8974372406</v>
       </c>
       <c r="CO3" t="n">
-        <v>5.169110087296892e-06</v>
+        <v>5.169110087296888e-06</v>
       </c>
       <c r="CP3" t="n">
-        <v>137934.6617461893</v>
+        <v>137934.6617461894</v>
       </c>
       <c r="CQ3" t="n">
-        <v>7.249809346979655e-06</v>
+        <v>7.249809346979649e-06</v>
       </c>
       <c r="CR3" t="n">
         <v>0.003395798695744088</v>
@@ -9969,13 +9969,13 @@
         <v>0.02606863419707386</v>
       </c>
       <c r="CU3" t="n">
-        <v>137999.9999953522</v>
+        <v>137999.9999953523</v>
       </c>
       <c r="CV3" t="n">
-        <v>1.627145819756432</v>
+        <v>1.627145819756433</v>
       </c>
       <c r="CW3" t="n">
-        <v>1.627145819756432</v>
+        <v>1.627145819756433</v>
       </c>
       <c r="CX3" t="n">
         <v>336973.3475829663</v>
@@ -10005,16 +10005,16 @@
         <v>0.02606863419707386</v>
       </c>
       <c r="DG3" t="n">
-        <v>0.238458730585987</v>
+        <v>0.238458730585733</v>
       </c>
       <c r="DH3" t="n">
-        <v>0.238458730585987</v>
+        <v>0.238458730585733</v>
       </c>
       <c r="DI3" t="n">
-        <v>186219.5323217469</v>
+        <v>186219.5323218367</v>
       </c>
       <c r="DJ3" t="n">
-        <v>2.776369934743631</v>
+        <v>2.776369934746502</v>
       </c>
       <c r="DK3" t="n">
         <v>421784.4310885898</v>
@@ -10023,340 +10023,340 @@
         <v>0</v>
       </c>
       <c r="DM3" t="n">
-        <v>309.3780778838653</v>
+        <v>309.3780752297151</v>
       </c>
       <c r="DN3" t="n">
-        <v>126.4136417524422</v>
+        <v>126.4136406679414</v>
       </c>
       <c r="DO3" t="n">
-        <v>282.3727788828099</v>
+        <v>282.3727764603378</v>
       </c>
       <c r="DP3" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="DQ3" t="n">
-        <v>309.3780778838653</v>
+        <v>309.3780752297151</v>
       </c>
       <c r="DR3" t="n">
-        <v>126.4136417524422</v>
+        <v>126.4136406679414</v>
       </c>
       <c r="DS3" t="n">
-        <v>282.3727788828099</v>
+        <v>282.3727764603378</v>
       </c>
       <c r="DT3" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="DU3" t="n">
-        <v>247.8365046131189</v>
+        <v>247.8365054333503</v>
       </c>
       <c r="DV3" t="n">
-        <v>72726.23751553644</v>
+        <v>72726.2383804252</v>
       </c>
       <c r="DW3" t="n">
-        <v>1.023014667228326</v>
+        <v>1.02301467600596</v>
       </c>
       <c r="DX3" t="n">
-        <v>302836.9115367727</v>
+        <v>302836.9121226422</v>
       </c>
       <c r="DY3" t="n">
-        <v>373927.0335509321</v>
+        <v>373927.0343722682</v>
       </c>
       <c r="DZ3" t="n">
-        <v>3790.093061367972</v>
+        <v>3790.09306127075</v>
       </c>
       <c r="EA3" t="n">
-        <v>-565396.3829369416</v>
+        <v>-565396.3852002634</v>
       </c>
       <c r="EB3" t="n">
-        <v>716.2529430488971</v>
+        <v>716.2529430665995</v>
       </c>
       <c r="EC3" t="n">
-        <v>1004.83158119372</v>
+        <v>1004.831581217525</v>
       </c>
       <c r="ED3" t="n">
-        <v>1.402900457087717</v>
+        <v>1.40290045708628</v>
       </c>
       <c r="EE3" t="n">
-        <v>0.9992812858993774</v>
+        <v>0.9992812859020344</v>
       </c>
       <c r="EF3" t="n">
-        <v>315.6911153420122</v>
+        <v>315.6911158650968</v>
       </c>
       <c r="EG3" t="n">
-        <v>101954.5423018056</v>
+        <v>101954.5435144596</v>
       </c>
       <c r="EH3" t="n">
-        <v>9.808292768749841e-06</v>
+        <v>9.80829265208937e-06</v>
       </c>
       <c r="EI3" t="n">
-        <v>72674.11011715913</v>
+        <v>72674.11098162422</v>
       </c>
       <c r="EJ3" t="n">
-        <v>1.37600584085293e-05</v>
+        <v>1.376005824485217e-05</v>
       </c>
       <c r="EK3" t="n">
-        <v>0.004048559450386108</v>
+        <v>0.004048559437019091</v>
       </c>
       <c r="EL3" t="n">
-        <v>1.592113114993577e-05</v>
+        <v>1.592113119279746e-05</v>
       </c>
       <c r="EM3" t="n">
-        <v>0.02238288370952384</v>
+        <v>0.02238288377459768</v>
       </c>
       <c r="EN3" t="n">
-        <v>72726.23751553644</v>
+        <v>72726.2383804252</v>
       </c>
       <c r="EO3" t="n">
-        <v>1.023014667228326</v>
+        <v>1.02301467600596</v>
       </c>
       <c r="EP3" t="n">
-        <v>1.023014667228326</v>
+        <v>1.02301467600596</v>
       </c>
       <c r="EQ3" t="n">
-        <v>302836.9115367727</v>
+        <v>302836.9121226422</v>
       </c>
       <c r="ER3" t="n">
-        <v>373927.0335509321</v>
+        <v>373927.0343722682</v>
       </c>
       <c r="ES3" t="n">
-        <v>3790.093061367972</v>
+        <v>3790.09306127075</v>
       </c>
       <c r="ET3" t="n">
-        <v>716.2529430488971</v>
+        <v>716.2529430665995</v>
       </c>
       <c r="EU3" t="n">
-        <v>1004.83158119372</v>
+        <v>1004.831581217525</v>
       </c>
       <c r="EV3" t="n">
-        <v>315.6911153420122</v>
+        <v>315.6911158650968</v>
       </c>
       <c r="EW3" t="n">
-        <v>0.9992812858993774</v>
+        <v>0.9992812859020344</v>
       </c>
       <c r="EX3" t="n">
-        <v>1.592113114993577e-05</v>
+        <v>1.592113119279746e-05</v>
       </c>
       <c r="EY3" t="n">
-        <v>0.02238288370952384</v>
+        <v>0.02238288377459768</v>
       </c>
       <c r="EZ3" t="n">
-        <v>295.5920968649941</v>
+        <v>295.5920968651</v>
       </c>
       <c r="FA3" t="n">
-        <v>134591.4165367011</v>
+        <v>134591.416582309</v>
       </c>
       <c r="FB3" t="n">
-        <v>1.586979526998807</v>
+        <v>1.586979527536253</v>
       </c>
       <c r="FC3" t="n">
-        <v>336974.6309325206</v>
+        <v>336974.6309325034</v>
       </c>
       <c r="FD3" t="n">
-        <v>421784.4310886899</v>
+        <v>421784.43108869</v>
       </c>
       <c r="FE3" t="n">
-        <v>3790.093061377621</v>
+        <v>3790.093061280396</v>
       </c>
       <c r="FF3" t="n">
-        <v>-698537.1242373858</v>
+        <v>-698537.124209048</v>
       </c>
       <c r="FG3" t="n">
-        <v>717.8543580607676</v>
+        <v>717.8543580608863</v>
       </c>
       <c r="FH3" t="n">
-        <v>1006.765618720372</v>
+        <v>1006.76561872112</v>
       </c>
       <c r="FI3" t="n">
-        <v>1.402465008974908</v>
+        <v>1.402465008975719</v>
       </c>
       <c r="FJ3" t="n">
-        <v>0.9995326648234802</v>
+        <v>0.9995326648233249</v>
       </c>
       <c r="FK3" t="n">
-        <v>344.8011163635649</v>
+        <v>344.8011163636734</v>
       </c>
       <c r="FL3" t="n">
-        <v>188672.520234632</v>
+        <v>188672.5202986465</v>
       </c>
       <c r="FM3" t="n">
-        <v>5.30018891334258e-06</v>
+        <v>5.300188911544284e-06</v>
       </c>
       <c r="FN3" t="n">
-        <v>134529.2175043545</v>
+        <v>134529.217549921</v>
       </c>
       <c r="FO3" t="n">
-        <v>7.43332949191971e-06</v>
+        <v>7.433329489401964e-06</v>
       </c>
       <c r="FP3" t="n">
-        <v>0.003395573843598282</v>
+        <v>0.003395573843601291</v>
       </c>
       <c r="FQ3" t="n">
-        <v>1.832907665247032e-05</v>
+        <v>1.832907665248203e-05</v>
       </c>
       <c r="FR3" t="n">
-        <v>0.0260669518441883</v>
+        <v>0.02606695184421082</v>
       </c>
       <c r="FS3" t="n">
-        <v>134591.4165367011</v>
+        <v>134591.416582309</v>
       </c>
       <c r="FT3" t="n">
-        <v>1.586979526998807</v>
+        <v>1.586979527536253</v>
       </c>
       <c r="FU3" t="n">
-        <v>1.586979526998807</v>
+        <v>1.586979527536253</v>
       </c>
       <c r="FV3" t="n">
-        <v>336974.6309325206</v>
+        <v>336974.6309325034</v>
       </c>
       <c r="FW3" t="n">
-        <v>421784.4310886899</v>
+        <v>421784.43108869</v>
       </c>
       <c r="FX3" t="n">
-        <v>3790.093061377621</v>
+        <v>3790.093061280396</v>
       </c>
       <c r="FY3" t="n">
-        <v>717.8543580607676</v>
+        <v>717.8543580608863</v>
       </c>
       <c r="FZ3" t="n">
-        <v>1006.765618720372</v>
+        <v>1006.76561872112</v>
       </c>
       <c r="GA3" t="n">
-        <v>344.8011163635649</v>
+        <v>344.8011163636734</v>
       </c>
       <c r="GB3" t="n">
-        <v>0.9995326648234802</v>
+        <v>0.9995326648233249</v>
       </c>
       <c r="GC3" t="n">
-        <v>1.832907665247032e-05</v>
+        <v>1.832907665248203e-05</v>
       </c>
       <c r="GD3" t="n">
-        <v>0.0260669518441883</v>
+        <v>0.02606695184421082</v>
       </c>
       <c r="GE3" t="n">
-        <v>295.5920968649941</v>
+        <v>295.5920968651</v>
       </c>
       <c r="GF3" t="n">
-        <v>134591.4165367011</v>
+        <v>134591.416582309</v>
       </c>
       <c r="GG3" t="n">
-        <v>1.586979526998807</v>
+        <v>1.586979527536253</v>
       </c>
       <c r="GH3" t="n">
-        <v>336974.6309325206</v>
+        <v>336974.6309325034</v>
       </c>
       <c r="GI3" t="n">
-        <v>421784.4310886899</v>
+        <v>421784.43108869</v>
       </c>
       <c r="GJ3" t="n">
-        <v>3790.093061377621</v>
+        <v>3790.093061280396</v>
       </c>
       <c r="GK3" t="n">
-        <v>-698537.1242373858</v>
+        <v>-698537.124209048</v>
       </c>
       <c r="GL3" t="n">
-        <v>717.8543580607676</v>
+        <v>717.8543580608863</v>
       </c>
       <c r="GM3" t="n">
-        <v>1006.765618720372</v>
+        <v>1006.76561872112</v>
       </c>
       <c r="GN3" t="n">
-        <v>1.402465008974908</v>
+        <v>1.402465008975719</v>
       </c>
       <c r="GO3" t="n">
-        <v>0.9995326648234802</v>
+        <v>0.9995326648233249</v>
       </c>
       <c r="GP3" t="n">
-        <v>344.8011163635649</v>
+        <v>344.8011163636734</v>
       </c>
       <c r="GQ3" t="n">
-        <v>188672.520234632</v>
+        <v>188672.5202986465</v>
       </c>
       <c r="GR3" t="n">
-        <v>5.30018891334258e-06</v>
+        <v>5.300188911544284e-06</v>
       </c>
       <c r="GS3" t="n">
-        <v>134529.2175043545</v>
+        <v>134529.217549921</v>
       </c>
       <c r="GT3" t="n">
-        <v>7.43332949191971e-06</v>
+        <v>7.433329489401964e-06</v>
       </c>
       <c r="GU3" t="n">
-        <v>0.003395573843598282</v>
+        <v>0.003395573843601291</v>
       </c>
       <c r="GV3" t="n">
-        <v>1.832907665247032e-05</v>
+        <v>1.832907665248203e-05</v>
       </c>
       <c r="GW3" t="n">
-        <v>0.0260669518441883</v>
+        <v>0.02606695184421082</v>
       </c>
       <c r="GX3" t="n">
-        <v>134591.4165367011</v>
+        <v>134591.416582309</v>
       </c>
       <c r="GY3" t="n">
-        <v>1.586979526998807</v>
+        <v>1.586979527536253</v>
       </c>
       <c r="GZ3" t="n">
-        <v>1.586979526998807</v>
+        <v>1.586979527536253</v>
       </c>
       <c r="HA3" t="n">
-        <v>336974.6309325206</v>
+        <v>336974.6309325034</v>
       </c>
       <c r="HB3" t="n">
-        <v>421784.4310886899</v>
+        <v>421784.43108869</v>
       </c>
       <c r="HC3" t="n">
-        <v>3790.093061377621</v>
+        <v>3790.093061280396</v>
       </c>
       <c r="HD3" t="n">
-        <v>717.8543580607676</v>
+        <v>717.8543580608863</v>
       </c>
       <c r="HE3" t="n">
-        <v>1006.765618720372</v>
+        <v>1006.76561872112</v>
       </c>
       <c r="HF3" t="n">
-        <v>344.8011163635649</v>
+        <v>344.8011163636734</v>
       </c>
       <c r="HG3" t="n">
-        <v>0.9995326648234802</v>
+        <v>0.9995326648233249</v>
       </c>
       <c r="HH3" t="n">
-        <v>1.832907665247032e-05</v>
+        <v>1.832907665248203e-05</v>
       </c>
       <c r="HI3" t="n">
-        <v>0.0260669518441883</v>
+        <v>0.02606695184421082</v>
       </c>
       <c r="HJ3" t="n">
-        <v>0.01619337326775453</v>
+        <v>0.01619337326020573</v>
       </c>
       <c r="HK3" t="n">
-        <v>-1.972005777373067e-07</v>
+        <v>-1.972005758360902e-07</v>
       </c>
       <c r="HL3" t="n">
-        <v>0.01379727827868038</v>
+        <v>0.01379727827868039</v>
       </c>
       <c r="HM3" t="n">
-        <v>0.02510093007318086</v>
+        <v>0.02510093007318063</v>
       </c>
       <c r="HN3" t="n">
         <v>0</v>
       </c>
       <c r="HO3" t="n">
-        <v>0.05509138441903803</v>
+        <v>0.0550913844114909</v>
       </c>
       <c r="HP3" t="n">
-        <v>5.578243674267402e-06</v>
+        <v>5.578243656996495e-06</v>
       </c>
       <c r="HQ3" t="n">
-        <v>0.9800024861285453</v>
+        <v>0.9800024760973021</v>
       </c>
       <c r="HR3" t="n">
-        <v>0.9800024861285453</v>
+        <v>0.9800024760973021</v>
       </c>
       <c r="HS3" t="n">
-        <v>520038.1648827197</v>
+        <v>520038.1634833238</v>
       </c>
       <c r="HT3" t="n">
-        <v>2.776362991771833</v>
+        <v>2.776362991775104</v>
       </c>
       <c r="HU3" t="n">
         <v>421784.4310885898</v>
@@ -10365,733 +10365,733 @@
         <v>0</v>
       </c>
       <c r="HW3" t="n">
-        <v>1493.408138610946</v>
+        <v>1493.408136433922</v>
       </c>
       <c r="HX3" t="n">
         <v>0</v>
       </c>
       <c r="HY3" t="n">
-        <v>0.006325925982098253</v>
+        <v>0.006325925975266709</v>
       </c>
       <c r="HZ3" t="n">
-        <v>-7.183679791538648e-08</v>
+        <v>-7.183679804277604e-08</v>
       </c>
       <c r="IA3" t="n">
-        <v>0.01007682939933277</v>
+        <v>0.01007682938047773</v>
       </c>
       <c r="IB3" t="n">
         <v>0</v>
       </c>
       <c r="IC3" t="n">
-        <v>0.005506126358016607</v>
+        <v>0.005506126348790313</v>
       </c>
       <c r="ID3" t="n">
-        <v>0.02499269670527356</v>
+        <v>0.02499269656272422</v>
       </c>
       <c r="IE3" t="n">
-        <v>0.002208533120231965</v>
+        <v>0.002208533062239477</v>
       </c>
       <c r="IF3" t="n">
-        <v>0.01186225827076423</v>
+        <v>0.01186225828073722</v>
       </c>
       <c r="IG3" t="n">
-        <v>0.03219276697458451</v>
+        <v>0.03219276690494956</v>
       </c>
       <c r="IH3" t="n">
-        <v>0.04259304861984633</v>
+        <v>0.04259304858987095</v>
       </c>
       <c r="II3" t="n">
-        <v>0.1138493036907006</v>
+        <v>0.1138493034005214</v>
       </c>
       <c r="IJ3" t="n">
-        <v>-7.324502115935161e-12</v>
+        <v>1.243971869957505e-10</v>
       </c>
       <c r="IK3" t="n">
         <v>165.3032</v>
       </c>
       <c r="IL3" t="n">
-        <v>270.8635182672775</v>
+        <v>270.8635183920271</v>
       </c>
       <c r="IM3" t="n">
-        <v>111.9410593001586</v>
+        <v>111.941059304606</v>
       </c>
       <c r="IN3" t="n">
-        <v>246.6500451467345</v>
+        <v>246.6500452817122</v>
       </c>
       <c r="IO3" t="n">
-        <v>65.58928231874685</v>
+        <v>65.58928232968992</v>
       </c>
       <c r="IP3" t="n">
-        <v>138.3766959157806</v>
+        <v>138.3766959987271</v>
       </c>
       <c r="IQ3" t="n">
-        <v>111.9410593001586</v>
+        <v>111.941059304606</v>
       </c>
       <c r="IR3" t="n">
-        <v>81.34684514673449</v>
+        <v>81.34684528171215</v>
       </c>
       <c r="IS3" t="n">
-        <v>36.00566279489024</v>
+        <v>36.00566283901909</v>
       </c>
       <c r="IT3" t="n">
-        <v>258.9941357242571</v>
+        <v>258.9941356905291</v>
       </c>
       <c r="IU3" t="n">
-        <v>85224.13213157271</v>
+        <v>85224.13209649523</v>
       </c>
       <c r="IV3" t="n">
-        <v>1.14712580287966</v>
+        <v>1.147125802557102</v>
       </c>
       <c r="IW3" t="n">
-        <v>310807.2851511781</v>
+        <v>310807.28512707</v>
       </c>
       <c r="IX3" t="n">
-        <v>385100.9083245322</v>
+        <v>385100.908290736</v>
       </c>
       <c r="IY3" t="n">
-        <v>3788.704170020193</v>
+        <v>3788.704170007769</v>
       </c>
       <c r="IZ3" t="n">
-        <v>-596151.2537047367</v>
+        <v>-596151.2536075294</v>
       </c>
       <c r="JA3" t="n">
-        <v>716.5217902414341</v>
+        <v>716.521790240551</v>
       </c>
       <c r="JB3" t="n">
-        <v>1005.184648010376</v>
+        <v>1005.184648009329</v>
       </c>
       <c r="JC3" t="n">
-        <v>1.402866823731455</v>
+        <v>1.402866823731723</v>
       </c>
       <c r="JD3" t="n">
-        <v>0.9993218376476199</v>
+        <v>0.9993218376474443</v>
       </c>
       <c r="JE3" t="n">
-        <v>322.7284402095393</v>
+        <v>322.7284401884992</v>
       </c>
       <c r="JF3" t="n">
-        <v>119477.3349283433</v>
+        <v>119477.3348791691</v>
       </c>
       <c r="JG3" t="n">
-        <v>8.369788300013147e-06</v>
+        <v>8.369788303457964e-06</v>
       </c>
       <c r="JH3" t="n">
-        <v>85166.55530462129</v>
+        <v>85166.55526955237</v>
       </c>
       <c r="JI3" t="n">
-        <v>1.174169832774413e-05</v>
+        <v>1.1741698332579e-05</v>
       </c>
       <c r="JJ3" t="n">
-        <v>0.003874551800016375</v>
+        <v>0.003874551800520532</v>
       </c>
       <c r="JK3" t="n">
-        <v>1.649919170223261e-05</v>
+        <v>1.649919170050084e-05</v>
       </c>
       <c r="JL3" t="n">
-        <v>0.02326215058717097</v>
+        <v>0.02326215058453258</v>
       </c>
       <c r="JM3" t="n">
-        <v>85224.13213157271</v>
+        <v>85224.13209649523</v>
       </c>
       <c r="JN3" t="n">
-        <v>1.14712580287966</v>
+        <v>1.147125802557102</v>
       </c>
       <c r="JO3" t="n">
-        <v>1.14712580287966</v>
+        <v>1.147125802557102</v>
       </c>
       <c r="JP3" t="n">
-        <v>310807.2851511781</v>
+        <v>310807.28512707</v>
       </c>
       <c r="JQ3" t="n">
-        <v>385100.9083245322</v>
+        <v>385100.908290736</v>
       </c>
       <c r="JR3" t="n">
-        <v>3788.704170020193</v>
+        <v>3788.704170007769</v>
       </c>
       <c r="JS3" t="n">
-        <v>716.5217902414341</v>
+        <v>716.521790240551</v>
       </c>
       <c r="JT3" t="n">
-        <v>1005.184648010376</v>
+        <v>1005.184648009329</v>
       </c>
       <c r="JU3" t="n">
-        <v>322.7284402095393</v>
+        <v>322.7284401884992</v>
       </c>
       <c r="JV3" t="n">
-        <v>0.9993218376476199</v>
+        <v>0.9993218376474443</v>
       </c>
       <c r="JW3" t="n">
-        <v>1.649919170223261e-05</v>
+        <v>1.649919170050084e-05</v>
       </c>
       <c r="JX3" t="n">
-        <v>0.02326215058717097</v>
+        <v>0.02326215058453258</v>
       </c>
       <c r="JY3" t="n">
-        <v>295.593611267378</v>
+        <v>295.5936112672916</v>
       </c>
       <c r="JZ3" t="n">
-        <v>135244.5237577312</v>
+        <v>135244.5237634278</v>
       </c>
       <c r="KA3" t="n">
-        <v>1.594675750278566</v>
+        <v>1.594675750346234</v>
       </c>
       <c r="KB3" t="n">
-        <v>336974.3850752942</v>
+        <v>336974.3850752207</v>
       </c>
       <c r="KC3" t="n">
-        <v>421784.4310887902</v>
+        <v>421784.4310886901</v>
       </c>
       <c r="KD3" t="n">
-        <v>3788.704170025395</v>
+        <v>3788.704170012971</v>
       </c>
       <c r="KE3" t="n">
-        <v>-698132.3165527903</v>
+        <v>-698132.3165488906</v>
       </c>
       <c r="KF3" t="n">
-        <v>717.8560592368711</v>
+        <v>717.8560592368818</v>
       </c>
       <c r="KG3" t="n">
-        <v>1006.776342140426</v>
+        <v>1006.776342140517</v>
       </c>
       <c r="KH3" t="n">
-        <v>1.402476623531877</v>
+        <v>1.402476623531983</v>
       </c>
       <c r="KI3" t="n">
-        <v>0.999530441515877</v>
+        <v>0.9995304415158563</v>
       </c>
       <c r="KJ3" t="n">
-        <v>344.8026690861276</v>
+        <v>344.8026690860832</v>
       </c>
       <c r="KK3" t="n">
-        <v>189589.2148848046</v>
+        <v>189589.2148928007</v>
       </c>
       <c r="KL3" t="n">
-        <v>5.274561639002543e-06</v>
+        <v>5.274561638780082e-06</v>
       </c>
       <c r="KM3" t="n">
-        <v>135181.729024017</v>
+        <v>135181.7290297083</v>
       </c>
       <c r="KN3" t="n">
-        <v>7.39744939807905e-06</v>
+        <v>7.397449397767613e-06</v>
       </c>
       <c r="KO3" t="n">
-        <v>0.003395616933197179</v>
+        <v>0.003395616933198712</v>
       </c>
       <c r="KP3" t="n">
-        <v>1.832924431622765e-05</v>
+        <v>1.832924431622429e-05</v>
       </c>
       <c r="KQ3" t="n">
-        <v>0.02606727416596024</v>
+        <v>0.02606727416595562</v>
       </c>
       <c r="KR3" t="n">
-        <v>135244.5237577312</v>
+        <v>135244.5237634278</v>
       </c>
       <c r="KS3" t="n">
-        <v>1.594675750278566</v>
+        <v>1.594675750346234</v>
       </c>
       <c r="KT3" t="n">
-        <v>1.594675750278566</v>
+        <v>1.594675750346234</v>
       </c>
       <c r="KU3" t="n">
-        <v>336974.3850752942</v>
+        <v>336974.3850752207</v>
       </c>
       <c r="KV3" t="n">
-        <v>421784.4310887902</v>
+        <v>421784.4310886901</v>
       </c>
       <c r="KW3" t="n">
-        <v>3788.704170025395</v>
+        <v>3788.704170012971</v>
       </c>
       <c r="KX3" t="n">
-        <v>717.8560592368711</v>
+        <v>717.8560592368818</v>
       </c>
       <c r="KY3" t="n">
-        <v>1006.776342140426</v>
+        <v>1006.776342140517</v>
       </c>
       <c r="KZ3" t="n">
-        <v>344.8026690861276</v>
+        <v>344.8026690860832</v>
       </c>
       <c r="LA3" t="n">
-        <v>0.999530441515877</v>
+        <v>0.9995304415158563</v>
       </c>
       <c r="LB3" t="n">
-        <v>1.832924431622765e-05</v>
+        <v>1.832924431622429e-05</v>
       </c>
       <c r="LC3" t="n">
-        <v>0.02606727416596024</v>
+        <v>0.02606727416595562</v>
       </c>
       <c r="LD3" t="n">
-        <v>268.5507580813374</v>
+        <v>268.5507580592812</v>
       </c>
       <c r="LE3" t="n">
-        <v>96720.84458547954</v>
+        <v>96720.844561908</v>
       </c>
       <c r="LF3" t="n">
-        <v>1.255488143225632</v>
+        <v>1.255488143022948</v>
       </c>
       <c r="LG3" t="n">
-        <v>317636.5260245907</v>
+        <v>317636.5260088173</v>
       </c>
       <c r="LH3" t="n">
-        <v>394674.9633108099</v>
+        <v>394674.9632886985</v>
       </c>
       <c r="LI3" t="n">
-        <v>3788.704170026828</v>
+        <v>3788.704170014404</v>
       </c>
       <c r="LJ3" t="n">
-        <v>-622784.4136958191</v>
+        <v>-622784.4136310295</v>
       </c>
       <c r="LK3" t="n">
-        <v>716.7985497371723</v>
+        <v>716.7985497364928</v>
       </c>
       <c r="LL3" t="n">
-        <v>1005.527878503252</v>
+        <v>1005.527878502491</v>
       </c>
       <c r="LM3" t="n">
-        <v>1.402804008004687</v>
+        <v>1.402804008004955</v>
       </c>
       <c r="LN3" t="n">
-        <v>0.9993666486682412</v>
+        <v>0.9993666486681029</v>
       </c>
       <c r="LO3" t="n">
-        <v>328.6361570605286</v>
+        <v>328.6361570470187</v>
       </c>
       <c r="LP3" t="n">
-        <v>135594.8835878222</v>
+        <v>135594.8835547837</v>
       </c>
       <c r="LQ3" t="n">
-        <v>7.374909535965782e-06</v>
+        <v>7.374909537762721e-06</v>
       </c>
       <c r="LR3" t="n">
-        <v>96659.89176969128</v>
+        <v>96659.89174612107</v>
       </c>
       <c r="LS3" t="n">
-        <v>1.034555265572479e-05</v>
+        <v>1.034555265824752e-05</v>
       </c>
       <c r="LT3" t="n">
-        <v>0.003736933889940325</v>
+        <v>0.003736933890247234</v>
       </c>
       <c r="LU3" t="n">
-        <v>1.698652618944452e-05</v>
+        <v>1.698652618832843e-05</v>
       </c>
       <c r="LV3" t="n">
-        <v>0.02400591489713499</v>
+        <v>0.02400591489542944</v>
       </c>
       <c r="LW3" t="n">
-        <v>96720.84458547954</v>
+        <v>96720.844561908</v>
       </c>
       <c r="LX3" t="n">
-        <v>1.255488143225632</v>
+        <v>1.255488143022948</v>
       </c>
       <c r="LY3" t="n">
-        <v>1.255488143225632</v>
+        <v>1.255488143022948</v>
       </c>
       <c r="LZ3" t="n">
-        <v>317636.5260245907</v>
+        <v>317636.5260088173</v>
       </c>
       <c r="MA3" t="n">
-        <v>394674.9633108099</v>
+        <v>394674.9632886985</v>
       </c>
       <c r="MB3" t="n">
-        <v>3788.704170026828</v>
+        <v>3788.704170014404</v>
       </c>
       <c r="MC3" t="n">
-        <v>716.7985497371723</v>
+        <v>716.7985497364928</v>
       </c>
       <c r="MD3" t="n">
-        <v>1005.527878503252</v>
+        <v>1005.527878502491</v>
       </c>
       <c r="ME3" t="n">
-        <v>328.6361570605286</v>
+        <v>328.6361570470187</v>
       </c>
       <c r="MF3" t="n">
-        <v>0.9993666486682412</v>
+        <v>0.9993666486681029</v>
       </c>
       <c r="MG3" t="n">
-        <v>1.698652618944452e-05</v>
+        <v>1.698652618832843e-05</v>
       </c>
       <c r="MH3" t="n">
-        <v>0.02400591489713499</v>
+        <v>0.02400591489542944</v>
       </c>
       <c r="MI3" t="n">
-        <v>0.8392923725328105</v>
+        <v>0.8392923729740742</v>
       </c>
       <c r="MJ3" t="n">
-        <v>0.4287713094821645</v>
+        <v>0.4287713097671345</v>
       </c>
       <c r="MK3" t="n">
-        <v>250718.1346709374</v>
+        <v>250718.1347770409</v>
       </c>
       <c r="ML3" t="n">
-        <v>2.75677235257182</v>
+        <v>2.756772351906175</v>
       </c>
       <c r="MM3" t="n">
-        <v>381012.3893457902</v>
+        <v>381012.3893234782</v>
       </c>
       <c r="MN3" t="n">
         <v>165.3032</v>
       </c>
       <c r="MO3" t="n">
-        <v>165.7024300878067</v>
+        <v>165.7024252043798</v>
       </c>
       <c r="MP3" t="n">
-        <v>139.9264990573161</v>
+        <v>139.926496369679</v>
       </c>
       <c r="MQ3" t="n">
-        <v>-88.75736701011024</v>
+        <v>-88.75736213024408</v>
       </c>
       <c r="MR3" t="n">
-        <v>-32.38753689426347</v>
+        <v>-32.38753596718441</v>
       </c>
       <c r="MS3" t="n">
-        <v>290.0451634624094</v>
+        <v>290.0451578913694</v>
       </c>
       <c r="MT3" t="n">
-        <v>139.9264990573161</v>
+        <v>139.926496369679</v>
       </c>
       <c r="MU3" t="n">
-        <v>-254.0605670101102</v>
+        <v>-254.0605621302441</v>
       </c>
       <c r="MV3" t="n">
         <v>-61.15576777799674</v>
       </c>
       <c r="MW3" t="n">
-        <v>226.5393323204529</v>
+        <v>226.5393339124935</v>
       </c>
       <c r="MX3" t="n">
-        <v>50833.92216142112</v>
+        <v>50833.92348419439</v>
       </c>
       <c r="MY3" t="n">
-        <v>0.7823072021383026</v>
+        <v>0.7823072169956623</v>
       </c>
       <c r="MZ3" t="n">
-        <v>287632.3759822316</v>
+        <v>287632.3771190834</v>
       </c>
       <c r="NA3" t="n">
-        <v>352611.8648869423</v>
+        <v>352611.8664805835</v>
       </c>
       <c r="NB3" t="n">
-        <v>3802.894322297462</v>
+        <v>3802.894321868308</v>
       </c>
       <c r="NC3" t="n">
-        <v>-508893.275771566</v>
+        <v>-508893.2801350669</v>
       </c>
       <c r="ND3" t="n">
-        <v>715.8733480355817</v>
+        <v>715.8733480573023</v>
       </c>
       <c r="NE3" t="n">
-        <v>1004.248443083262</v>
+        <v>1004.248443117047</v>
       </c>
       <c r="NF3" t="n">
-        <v>1.402829768476515</v>
+        <v>1.402829768481144</v>
       </c>
       <c r="NG3" t="n">
-        <v>0.9992552641579965</v>
+        <v>0.9992552641600856</v>
       </c>
       <c r="NH3" t="n">
-        <v>301.8068307501332</v>
+        <v>301.8068318117678</v>
       </c>
       <c r="NI3" t="n">
-        <v>71258.30016709054</v>
+        <v>71258.30202172411</v>
       </c>
       <c r="NJ3" t="n">
-        <v>1.403345291222416e-05</v>
+        <v>1.403345254697671e-05</v>
       </c>
       <c r="NK3" t="n">
-        <v>50796.11351880397</v>
+        <v>50796.11484070236</v>
       </c>
       <c r="NL3" t="n">
-        <v>1.968654549978149e-05</v>
+        <v>1.968654498746647e-05</v>
       </c>
       <c r="NM3" t="n">
-        <v>0.004427723464122047</v>
+        <v>0.004427723433088764</v>
       </c>
       <c r="NN3" t="n">
-        <v>1.478892449652758e-05</v>
+        <v>1.47889245826043e-05</v>
       </c>
       <c r="NO3" t="n">
-        <v>0.02066986363120462</v>
+        <v>0.02066986376094247</v>
       </c>
       <c r="NP3" t="n">
-        <v>50833.92216142112</v>
+        <v>50833.92348419439</v>
       </c>
       <c r="NQ3" t="n">
-        <v>0.7823072021383026</v>
+        <v>0.7823072169956623</v>
       </c>
       <c r="NR3" t="n">
-        <v>0.7823072021383026</v>
+        <v>0.7823072169956623</v>
       </c>
       <c r="NS3" t="n">
-        <v>287632.3759822316</v>
+        <v>287632.3771190834</v>
       </c>
       <c r="NT3" t="n">
-        <v>352611.8648869423</v>
+        <v>352611.8664805835</v>
       </c>
       <c r="NU3" t="n">
-        <v>3802.894322297462</v>
+        <v>3802.894321868308</v>
       </c>
       <c r="NV3" t="n">
-        <v>715.8733480355817</v>
+        <v>715.8733480573023</v>
       </c>
       <c r="NW3" t="n">
-        <v>1004.248443083262</v>
+        <v>1004.248443117047</v>
       </c>
       <c r="NX3" t="n">
-        <v>301.8068307501332</v>
+        <v>301.8068318117678</v>
       </c>
       <c r="NY3" t="n">
-        <v>0.9992552641579965</v>
+        <v>0.9992552641600856</v>
       </c>
       <c r="NZ3" t="n">
-        <v>1.478892449652758e-05</v>
+        <v>1.47889245826043e-05</v>
       </c>
       <c r="OA3" t="n">
-        <v>0.02066986363120462</v>
+        <v>0.02066986376094247</v>
       </c>
       <c r="OB3" t="n">
-        <v>240.2504697575012</v>
+        <v>240.2504705410943</v>
       </c>
       <c r="OC3" t="n">
-        <v>62407.79993364016</v>
+        <v>62407.80073729795</v>
       </c>
       <c r="OD3" t="n">
-        <v>0.9055812108374979</v>
+        <v>0.9055812195444389</v>
       </c>
       <c r="OE3" t="n">
-        <v>297425.8760911842</v>
+        <v>297425.8766506771</v>
       </c>
       <c r="OF3" t="n">
-        <v>366340.5125553443</v>
+        <v>366340.5133396896</v>
       </c>
       <c r="OG3" t="n">
-        <v>3802.894322293026</v>
+        <v>3802.894321863872</v>
       </c>
       <c r="OH3" t="n">
-        <v>-547306.6348136888</v>
+        <v>-547306.6369061612</v>
       </c>
       <c r="OI3" t="n">
-        <v>716.0896066336103</v>
+        <v>716.0896066483695</v>
       </c>
       <c r="OJ3" t="n">
-        <v>1004.552388863288</v>
+        <v>1004.552388885218</v>
       </c>
       <c r="OK3" t="n">
-        <v>1.402830566953433</v>
+        <v>1.402830566955144</v>
       </c>
       <c r="OL3" t="n">
-        <v>0.9992887403244919</v>
+        <v>0.9992887403256904</v>
       </c>
       <c r="OM3" t="n">
-        <v>310.8165675055851</v>
+        <v>310.8165680130275</v>
       </c>
       <c r="ON3" t="n">
-        <v>87485.42846525104</v>
+        <v>87485.42959206121</v>
       </c>
       <c r="OO3" t="n">
-        <v>1.143047496643623e-05</v>
+        <v>1.1430474819212e-05</v>
       </c>
       <c r="OP3" t="n">
-        <v>62363.50313869023</v>
+        <v>62363.5039418546</v>
       </c>
       <c r="OQ3" t="n">
-        <v>1.603501967771277e-05</v>
+        <v>1.603501947120166e-05</v>
       </c>
       <c r="OR3" t="n">
-        <v>0.004175526280021289</v>
+        <v>0.004175526266449338</v>
       </c>
       <c r="OS3" t="n">
-        <v>1.552192918481414e-05</v>
+        <v>1.552192922626003e-05</v>
       </c>
       <c r="OT3" t="n">
-        <v>0.02177716919473159</v>
+        <v>0.02177716925750377</v>
       </c>
       <c r="OU3" t="n">
-        <v>62407.79993364016</v>
+        <v>62407.80073729795</v>
       </c>
       <c r="OV3" t="n">
-        <v>0.9055812108374979</v>
+        <v>0.9055812195444389</v>
       </c>
       <c r="OW3" t="n">
-        <v>0.9055812108374979</v>
+        <v>0.9055812195444389</v>
       </c>
       <c r="OX3" t="n">
-        <v>297425.8760911842</v>
+        <v>297425.8766506771</v>
       </c>
       <c r="OY3" t="n">
-        <v>366340.5125553443</v>
+        <v>366340.5133396896</v>
       </c>
       <c r="OZ3" t="n">
-        <v>3802.894322293026</v>
+        <v>3802.894321863872</v>
       </c>
       <c r="PA3" t="n">
-        <v>716.0896066336103</v>
+        <v>716.0896066483695</v>
       </c>
       <c r="PB3" t="n">
-        <v>1004.552388863288</v>
+        <v>1004.552388885218</v>
       </c>
       <c r="PC3" t="n">
-        <v>310.8165675055851</v>
+        <v>310.8165680130275</v>
       </c>
       <c r="PD3" t="n">
-        <v>0.9992887403244919</v>
+        <v>0.9992887403256904</v>
       </c>
       <c r="PE3" t="n">
-        <v>1.552192918481414e-05</v>
+        <v>1.552192922626003e-05</v>
       </c>
       <c r="PF3" t="n">
-        <v>0.02177716919473159</v>
+        <v>0.02177716925750377</v>
       </c>
       <c r="PG3" t="n">
-        <v>268.5376063012366</v>
+        <v>268.5376062791636</v>
       </c>
       <c r="PH3" t="n">
-        <v>92052.93451261643</v>
+        <v>92052.9346234297</v>
       </c>
       <c r="PI3" t="n">
-        <v>1.194918525773802</v>
+        <v>1.194918527311659</v>
       </c>
       <c r="PJ3" t="n">
-        <v>317637.9666228786</v>
+        <v>317637.9666067811</v>
       </c>
       <c r="PK3" t="n">
-        <v>394674.9633110043</v>
+        <v>394674.9632884974</v>
       </c>
       <c r="PL3" t="n">
-        <v>3802.894322286832</v>
+        <v>3802.894321857677</v>
       </c>
       <c r="PM3" t="n">
-        <v>-626545.1750124649</v>
+        <v>-626545.1748357866</v>
       </c>
       <c r="PN3" t="n">
-        <v>716.78315265176</v>
+        <v>716.7831526515097</v>
       </c>
       <c r="PO3" t="n">
-        <v>1005.431457482145</v>
+        <v>1005.431457484136</v>
       </c>
       <c r="PP3" t="n">
-        <v>1.402699622281191</v>
+        <v>1.402699622284459</v>
       </c>
       <c r="PQ3" t="n">
-        <v>0.9993969044079208</v>
+        <v>0.9993969044069202</v>
       </c>
       <c r="PR3" t="n">
-        <v>328.6257826491542</v>
+        <v>328.625782635703</v>
       </c>
       <c r="PS3" t="n">
-        <v>129045.1126996941</v>
+        <v>129045.1128552109</v>
       </c>
       <c r="PT3" t="n">
-        <v>7.749227995384362e-06</v>
+        <v>7.7492279860455e-06</v>
       </c>
       <c r="PU3" t="n">
-        <v>91997.68122117961</v>
+        <v>91997.68133183493</v>
       </c>
       <c r="PV3" t="n">
-        <v>1.086983918209648e-05</v>
+        <v>1.086983916902218e-05</v>
       </c>
       <c r="PW3" t="n">
-        <v>0.003736479944889438</v>
+        <v>0.003736479945214797</v>
       </c>
       <c r="PX3" t="n">
-        <v>1.69851528900094e-05</v>
+        <v>1.698515288891283e-05</v>
       </c>
       <c r="PY3" t="n">
-        <v>0.02400324667598998</v>
+        <v>0.02400324667433062</v>
       </c>
       <c r="PZ3" t="n">
-        <v>92052.93451261643</v>
+        <v>92052.9346234297</v>
       </c>
       <c r="QA3" t="n">
-        <v>1.194918525773802</v>
+        <v>1.194918527311659</v>
       </c>
       <c r="QB3" t="n">
-        <v>1.194918525773802</v>
+        <v>1.194918527311659</v>
       </c>
       <c r="QC3" t="n">
-        <v>317637.9666228786</v>
+        <v>317637.9666067811</v>
       </c>
       <c r="QD3" t="n">
-        <v>394674.9633110043</v>
+        <v>394674.9632884974</v>
       </c>
       <c r="QE3" t="n">
-        <v>3802.894322286832</v>
+        <v>3802.894321857677</v>
       </c>
       <c r="QF3" t="n">
-        <v>716.78315265176</v>
+        <v>716.7831526515097</v>
       </c>
       <c r="QG3" t="n">
-        <v>1005.431457482145</v>
+        <v>1005.431457484136</v>
       </c>
       <c r="QH3" t="n">
-        <v>328.6257826491542</v>
+        <v>328.625782635703</v>
       </c>
       <c r="QI3" t="n">
-        <v>0.9993969044079208</v>
+        <v>0.9993969044069202</v>
       </c>
       <c r="QJ3" t="n">
-        <v>1.69851528900094e-05</v>
+        <v>1.698515288891283e-05</v>
       </c>
       <c r="QK3" t="n">
-        <v>0.02400324667598998</v>
+        <v>0.02400324667433062</v>
       </c>
       <c r="QL3" t="n">
-        <v>0.0243963252116365</v>
+        <v>0.0243963252940198</v>
       </c>
       <c r="QM3" t="n">
-        <v>0.002282459036472995</v>
+        <v>0.002282459031753487</v>
       </c>
       <c r="QN3" t="n">
-        <v>0.01190068559279959</v>
+        <v>0.0119006855907964</v>
       </c>
       <c r="QO3" t="n">
-        <v>0.0319546582521212</v>
+        <v>0.0319546582697598</v>
       </c>
       <c r="QP3" t="n">
-        <v>0.04269609654940369</v>
+        <v>0.04269609657838178</v>
       </c>
       <c r="QQ3" t="n">
-        <v>0.113230224642434</v>
+        <v>0.1132302247647113</v>
       </c>
       <c r="QR3" t="n">
-        <v>1.630424310716805e-05</v>
+        <v>1.630419034757968e-05</v>
       </c>
       <c r="QS3" t="n">
-        <v>0.5490347242173331</v>
+        <v>0.5490347061054133</v>
       </c>
       <c r="QT3" t="n">
-        <v>0.9610291547792656</v>
+        <v>0.9610291329397939</v>
       </c>
       <c r="QU3" t="n">
-        <v>399834.9707566865</v>
+        <v>399834.968343234</v>
       </c>
       <c r="QV3" t="n">
-        <v>2.756753157215057</v>
+        <v>2.756753156620229</v>
       </c>
       <c r="QW3" t="n">
-        <v>381012.3893457902</v>
+        <v>381012.3893234781</v>
       </c>
       <c r="QX3" t="n">
         <v>0</v>
       </c>
       <c r="QY3" t="n">
-        <v>2821.383968673937</v>
+        <v>2821.383969639253</v>
       </c>
       <c r="QZ3" t="n">
-        <v>6.54104883629234</v>
+        <v>6.541048741976006</v>
       </c>
       <c r="RA3" t="n">
-        <v>0.009086261003253484</v>
+        <v>0.009086260976462639</v>
       </c>
       <c r="RB3" t="n">
-        <v>0.0008029268950606341</v>
+        <v>0.000802926876189255</v>
       </c>
       <c r="RC3" t="n">
-        <v>0.01170389440553138</v>
+        <v>0.01170389441246099</v>
       </c>
       <c r="RD3" t="n">
-        <v>0.01548498592400908</v>
+        <v>0.01548498595577463</v>
       </c>
       <c r="RE3" t="n">
-        <v>0.004312602837829153</v>
+        <v>0.004312602853336722</v>
       </c>
     </row>
   </sheetData>
@@ -11130,7 +11130,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.4037487272362373</v>
+        <v>0.403748727236968</v>
       </c>
     </row>
     <row r="3">
@@ -11138,7 +11138,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.4233608860445867</v>
+        <v>0.4233608886174768</v>
       </c>
     </row>
   </sheetData>
@@ -11928,7 +11928,7 @@
         <v>58</v>
       </c>
       <c r="H2" t="n">
-        <v>2.534647970141037e-08</v>
+        <v>2.534645175870246e-08</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -11950,16 +11950,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="n">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="H3" t="n">
-        <v>7.52025796666753e-08</v>
+        <v>6.37412591466706e-08</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
